--- a/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
+++ b/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -920,6 +920,12 @@
   </si>
   <si>
     <t>tm</t>
+  </si>
+  <si>
+    <t>sLinkChannels</t>
+  </si>
+  <si>
+    <t>sLinkChatRooms</t>
   </si>
 </sst>
 </file>
@@ -1100,9 +1106,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1126,11 +1129,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1147,6 +1153,1435 @@
   </cellStyles>
   <dxfs count="126">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1166,10 +2601,74 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1191,6 +2690,76 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
@@ -1205,6 +2774,82 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1223,10 +2868,74 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1239,1709 +2948,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="medium">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="medium">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -2959,19 +2965,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>296736</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>572961</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2990,7 +2996,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1562100" y="95250"/>
+          <a:off x="1228725" y="1828800"/>
           <a:ext cx="9707436" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3004,29 +3010,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:C9" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="124" tableBorderDxfId="125" totalsRowBorderDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:C9" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="B3:C9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="122"/>
-    <tableColumn id="2" name="Value" dataDxfId="121"/>
+    <tableColumn id="1" name="Name" dataDxfId="121"/>
+    <tableColumn id="2" name="Value" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15811" displayName="Table15811" ref="B39:C42" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="109" tableBorderDxfId="110" totalsRowBorderDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15811" displayName="Table15811" ref="B39:C42" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99" totalsRowBorderDxfId="98">
   <autoFilter ref="B39:C42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="107"/>
-    <tableColumn id="2" name="Value" dataDxfId="106"/>
+    <tableColumn id="1" name="Name" dataDxfId="97"/>
+    <tableColumn id="2" name="Value" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table26912" displayName="Table26912" ref="F39:G46" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table26912" displayName="Table26912" ref="F39:G46" totalsRowShown="0" headerRowDxfId="95">
   <autoFilter ref="F39:G46"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3037,7 +3043,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table2471013" displayName="Table2471013" ref="J39:K44" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table2471013" displayName="Table2471013" ref="J39:K44" totalsRowShown="0" headerRowDxfId="94">
   <autoFilter ref="J39:K44"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3048,18 +3054,18 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1581114" displayName="Table1581114" ref="B51:C64" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="104" tableBorderDxfId="105" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1581114" displayName="Table1581114" ref="B51:C64" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
   <autoFilter ref="B51:C64"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="102"/>
-    <tableColumn id="2" name="Value" dataDxfId="101"/>
+    <tableColumn id="1" name="Name" dataDxfId="89"/>
+    <tableColumn id="2" name="Value" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table2691215" displayName="Table2691215" ref="F51:G58" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table2691215" displayName="Table2691215" ref="F51:G58" totalsRowShown="0" headerRowDxfId="87">
   <autoFilter ref="F51:G58"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3070,7 +3076,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table247101316" displayName="Table247101316" ref="J51:K58" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table247101316" displayName="Table247101316" ref="J51:K58" totalsRowShown="0" headerRowDxfId="86">
   <autoFilter ref="J51:K58"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3081,59 +3087,59 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B3:E14" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="99" tableBorderDxfId="100" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B3:E14" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
   <autoFilter ref="B3:E14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="97"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="96"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="95"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="94"/>
+    <tableColumn id="1" name="Key" dataDxfId="81"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="80"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="79"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table1618" displayName="Table1618" ref="H3:K14" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="92" tableBorderDxfId="93" totalsRowBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table1618" displayName="Table1618" ref="H3:K14" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
   <autoFilter ref="H3:K14"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="90"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="89"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="88"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="87"/>
+    <tableColumn id="1" name="Key" dataDxfId="73"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="72"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="71"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1619" displayName="Table1619" ref="N3:Q21" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="85" tableBorderDxfId="86" totalsRowBorderDxfId="84">
-  <autoFilter ref="N3:Q21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1619" displayName="Table1619" ref="N3:Q23" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="N3:Q23"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="83"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="82"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="81"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="80"/>
+    <tableColumn id="1" name="Key" dataDxfId="65"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="64"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="63"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1620" displayName="Table1620" ref="B26:E32" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="78" tableBorderDxfId="79" totalsRowBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1620" displayName="Table1620" ref="B26:E32" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="B26:E32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="76"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="75"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="74"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="73"/>
+    <tableColumn id="1" name="Key" dataDxfId="57"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="56"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="55"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F3:G9" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F3:G9" totalsRowShown="0" headerRowDxfId="119">
   <autoFilter ref="F3:G9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3144,60 +3150,21 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table162021" displayName="Table162021" ref="H26:K32" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="71" tableBorderDxfId="72" totalsRowBorderDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table162021" displayName="Table162021" ref="H26:K32" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="H26:K32"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="69"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="68"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="67"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="66"/>
+    <tableColumn id="1" name="Key" dataDxfId="49"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="48"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="47"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table162022" displayName="Table162022" ref="N26:Q31" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table162022" displayName="Table162022" ref="N26:Q31" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <autoFilter ref="N26:Q31"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="62"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="61"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="60"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="59"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table162023" displayName="Table162023" ref="B37:E43" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="57" tableBorderDxfId="58" totalsRowBorderDxfId="56">
-  <autoFilter ref="B37:E43"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="55"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="54"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="53"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="52"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table16202124" displayName="Table16202124" ref="H37:K63" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="50" tableBorderDxfId="51" totalsRowBorderDxfId="49">
-  <autoFilter ref="H37:K63"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="48"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="47"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="46"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="45"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table16202225" displayName="Table16202225" ref="N37:Q42" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
-  <autoFilter ref="N37:Q42"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="41"/>
     <tableColumn id="2" name="Column Name" dataDxfId="40"/>
@@ -3208,32 +3175,71 @@
 </table>
 </file>
 
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table162023" displayName="Table162023" ref="B37:E43" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="B37:E43"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="33"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="32"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="31"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table16202124" displayName="Table16202124" ref="H37:K63" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="H37:K63"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="25"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="24"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="23"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table16202225" displayName="Table16202225" ref="N37:Q42" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="N37:Q42"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="17"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="16"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="15"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table2691226" displayName="Table2691226" ref="C4:E51" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table2691226" displayName="Table2691226" ref="C4:E51" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="C4:E51"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="34"/>
-    <tableColumn id="2" name="Value" dataDxfId="33"/>
-    <tableColumn id="3" name="E.g" dataDxfId="32"/>
+    <tableColumn id="1" name="Name" dataDxfId="9"/>
+    <tableColumn id="2" name="Value" dataDxfId="8"/>
+    <tableColumn id="3" name="E.g" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table269122627" displayName="Table269122627" ref="G4:I19" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table269122627" displayName="Table269122627" ref="G4:I19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="G4:I19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="28"/>
-    <tableColumn id="2" name="Value" dataDxfId="27"/>
-    <tableColumn id="3" name="E.g" dataDxfId="26"/>
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Value" dataDxfId="1"/>
+    <tableColumn id="3" name="E.g" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="J3:K9" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="J3:K9" totalsRowShown="0" headerRowDxfId="118">
   <autoFilter ref="J3:K9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3244,18 +3250,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B14:C16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="119" tableBorderDxfId="120" totalsRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B14:C16" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115" totalsRowBorderDxfId="114">
   <autoFilter ref="B14:C16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="117"/>
-    <tableColumn id="2" name="Value" dataDxfId="116"/>
+    <tableColumn id="1" name="Name" dataDxfId="113"/>
+    <tableColumn id="2" name="Value" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="F14:G16" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="F14:G16" totalsRowShown="0" headerRowDxfId="111">
   <autoFilter ref="F14:G16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3266,7 +3272,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="J14:K20" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="J14:K20" totalsRowShown="0" headerRowDxfId="110">
   <autoFilter ref="J14:K20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3277,18 +3283,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table158" displayName="Table158" ref="B25:C31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="114" tableBorderDxfId="115" totalsRowBorderDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table158" displayName="Table158" ref="B25:C31" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="B25:C31"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="112"/>
-    <tableColumn id="2" name="Value" dataDxfId="111"/>
+    <tableColumn id="1" name="Name" dataDxfId="105"/>
+    <tableColumn id="2" name="Value" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table269" displayName="Table269" ref="F25:G27" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table269" displayName="Table269" ref="F25:G27" totalsRowShown="0" headerRowDxfId="103">
   <autoFilter ref="F25:G27"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3299,7 +3305,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table24710" displayName="Table24710" ref="J25:K34" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table24710" displayName="Table24710" ref="J25:K34" totalsRowShown="0" headerRowDxfId="102">
   <autoFilter ref="J25:K34"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3614,36 +3620,36 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="G2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3753,36 +3759,36 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="C13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="J13" s="8" t="s">
+      <c r="G13" s="20"/>
+      <c r="J13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="F14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19" t="s">
+      <c r="J14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3860,36 +3866,36 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="C24" s="20"/>
+      <c r="F24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="J24" s="8" t="s">
+      <c r="G24" s="20"/>
+      <c r="J24" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="8"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19" t="s">
+      <c r="F25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J25" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K25" s="19" t="s">
+      <c r="J25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4015,36 +4021,36 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="C38" s="20"/>
+      <c r="F38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="J38" s="8" t="s">
+      <c r="G38" s="20"/>
+      <c r="J38" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="8"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J39" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="19" t="s">
+      <c r="J39" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4154,36 +4160,36 @@
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="C50" s="20"/>
+      <c r="F50" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="G50" s="20"/>
+      <c r="J50" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="8"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F51" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="19" t="s">
+      <c r="F51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J51" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="19" t="s">
+      <c r="J51" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4321,6 +4327,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="J50:K50"/>
@@ -4330,12 +4342,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4363,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4385,60 +4391,60 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="N2" s="8" t="s">
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="N2" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4784,10 +4790,10 @@
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N15" s="2"/>
-      <c r="O15" s="10" t="s">
+      <c r="O15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>105</v>
       </c>
       <c r="Q15" s="6" t="b">
@@ -4796,10 +4802,10 @@
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N16" s="2"/>
-      <c r="O16" s="10" t="s">
+      <c r="O16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>133</v>
       </c>
       <c r="Q16" s="6" t="b">
@@ -4808,10 +4814,10 @@
     </row>
     <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N17" s="2"/>
-      <c r="O17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="9" t="s">
         <v>135</v>
       </c>
       <c r="Q17" s="6" t="b">
@@ -4820,10 +4826,10 @@
     </row>
     <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N18" s="2"/>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>105</v>
       </c>
       <c r="Q18" s="6" t="b">
@@ -4832,10 +4838,10 @@
     </row>
     <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N19" s="2"/>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q19" s="6" t="b">
@@ -4844,10 +4850,10 @@
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20" s="2"/>
-      <c r="O20" s="10" t="s">
+      <c r="O20" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>135</v>
       </c>
       <c r="Q20" s="6" t="b">
@@ -4856,72 +4862,96 @@
     </row>
     <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N21" s="2"/>
-      <c r="O21" s="10" t="s">
+      <c r="O21" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>189</v>
       </c>
       <c r="Q21" s="6" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="2"/>
+      <c r="O22" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="2"/>
+      <c r="O23" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="H25" s="8" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="H25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="N25" s="8" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="N25" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Q26" s="18" t="s">
+      <c r="Q26" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5117,60 +5147,60 @@
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="H36" s="8" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="H36" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="N36" s="8" t="s">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="N36" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="N37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O37" s="17" t="s">
+      <c r="O37" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="17" t="s">
+      <c r="P37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="Q37" s="18" t="s">
+      <c r="Q37" s="17" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5220,10 +5250,10 @@
       <c r="H39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K39" s="6" t="b">
@@ -5246,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="2"/>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K40" s="6" t="b">
@@ -5272,10 +5302,10 @@
         <v>1</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K41" s="6" t="b">
@@ -5298,10 +5328,10 @@
         <v>1</v>
       </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K42" s="6" t="b">
@@ -5318,10 +5348,10 @@
       <c r="D43" s="7"/>
       <c r="E43" s="6"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K43" s="6" t="b">
@@ -5330,10 +5360,10 @@
     </row>
     <row r="44" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="2"/>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K44" s="6" t="b">
@@ -5342,10 +5372,10 @@
     </row>
     <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="2"/>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K45" s="6" t="b">
@@ -5354,7 +5384,7 @@
     </row>
     <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="9" t="s">
         <v>171</v>
       </c>
       <c r="J46" s="7" t="s">
@@ -5366,10 +5396,10 @@
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H47" s="2"/>
-      <c r="I47" s="10" t="s">
+      <c r="I47" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K47" s="6" t="b">
@@ -5378,10 +5408,10 @@
     </row>
     <row r="48" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H48" s="2"/>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="9" t="s">
         <v>136</v>
       </c>
       <c r="K48" s="6" t="b">
@@ -5390,7 +5420,7 @@
     </row>
     <row r="49" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H49" s="2"/>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="9" t="s">
         <v>174</v>
       </c>
       <c r="J49" s="7" t="s">
@@ -5402,10 +5432,10 @@
     </row>
     <row r="50" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H50" s="2"/>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K50" s="6" t="b">
@@ -5414,10 +5444,10 @@
     </row>
     <row r="51" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H51" s="2"/>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J51" s="10" t="s">
+      <c r="J51" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K51" s="6" t="b">
@@ -5426,10 +5456,10 @@
     </row>
     <row r="52" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H52" s="2"/>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J52" s="10" t="s">
+      <c r="J52" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K52" s="6" t="b">
@@ -5438,10 +5468,10 @@
     </row>
     <row r="53" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="2"/>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K53" s="6" t="b">
@@ -5450,10 +5480,10 @@
     </row>
     <row r="54" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="2"/>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K54" s="6" t="b">
@@ -5462,10 +5492,10 @@
     </row>
     <row r="55" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="2"/>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K55" s="6" t="b">
@@ -5474,7 +5504,7 @@
     </row>
     <row r="56" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="2"/>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="9" t="s">
         <v>181</v>
       </c>
       <c r="J56" s="7" t="s">
@@ -5486,7 +5516,7 @@
     </row>
     <row r="57" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="2"/>
-      <c r="I57" s="10" t="s">
+      <c r="I57" s="9" t="s">
         <v>182</v>
       </c>
       <c r="J57" s="7" t="s">
@@ -5498,10 +5528,10 @@
     </row>
     <row r="58" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H58" s="2"/>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K58" s="6" t="b">
@@ -5510,10 +5540,10 @@
     </row>
     <row r="59" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H59" s="2"/>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J59" s="10" t="s">
+      <c r="J59" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K59" s="6" t="b">
@@ -5522,10 +5552,10 @@
     </row>
     <row r="60" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H60" s="2"/>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K60" s="6" t="b">
@@ -5534,10 +5564,10 @@
     </row>
     <row r="61" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="2"/>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K61" s="6" t="b">
@@ -5546,7 +5576,7 @@
     </row>
     <row r="62" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H62" s="2"/>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>187</v>
       </c>
       <c r="J62" s="7" t="s">
@@ -5558,10 +5588,10 @@
     </row>
     <row r="63" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H63" s="2"/>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="9" t="s">
         <v>189</v>
       </c>
       <c r="K63" s="6" t="b">
@@ -5599,7 +5629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -5615,40 +5645,40 @@
   <sheetData>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
-      <c r="D5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="3"/>
       <c r="G5" s="5" t="s">
         <v>211</v>
@@ -5737,14 +5767,14 @@
       <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>212</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>226</v>
       </c>
       <c r="I12" s="1"/>
@@ -5754,7 +5784,7 @@
       <c r="C13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E13" s="1"/>
@@ -5771,7 +5801,7 @@
       <c r="C14" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E14" s="1"/>
@@ -5788,14 +5818,14 @@
       <c r="C15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>237</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>212</v>
       </c>
       <c r="I15" s="1"/>
@@ -5805,7 +5835,7 @@
       <c r="C16" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E16" s="1"/>
@@ -5825,13 +5855,13 @@
       <c r="G17" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>224</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>287</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -5846,74 +5876,74 @@
       <c r="G18" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>224</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>244</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>248</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>252</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -5921,31 +5951,31 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>255</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>257</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>209</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -5953,11 +5983,11 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -5965,21 +5995,21 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -5987,11 +6017,11 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -5999,51 +6029,51 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>263</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>267</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>215</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -6051,11 +6081,11 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -6063,33 +6093,33 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>288</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>269</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>271</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>273</v>
       </c>
       <c r="E40" s="1"/>
@@ -6101,7 +6131,7 @@
       <c r="C41" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E41" s="1"/>
@@ -6111,7 +6141,7 @@
       <c r="C42" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E42" s="1"/>
@@ -6121,7 +6151,7 @@
       <c r="C43" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>279</v>
       </c>
       <c r="E43" s="1"/>
@@ -6131,7 +6161,7 @@
       <c r="C44" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>281</v>
       </c>
       <c r="E44" s="1"/>
@@ -6141,7 +6171,7 @@
       <c r="C45" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E45" s="1"/>
@@ -6151,35 +6181,35 @@
       <c r="C46" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>286</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="21" t="s">
         <v>295</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>296</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>297</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="20"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="5" t="s">
         <v>291</v>
       </c>
@@ -6189,7 +6219,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="5" t="s">
         <v>293</v>
       </c>
@@ -6199,7 +6229,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="20"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5" t="s">
         <v>294</v>
       </c>
@@ -6229,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
+++ b/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -2964,20 +2964,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>572961</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133549</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2996,8 +2996,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="1828800"/>
-          <a:ext cx="9707436" cy="7772400"/>
+          <a:off x="1114425" y="161925"/>
+          <a:ext cx="9991924" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4327,12 +4327,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="J50:K50"/>
@@ -4342,6 +4336,12 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5629,8 +5629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6259,8 +6259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
+++ b/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="316">
   <si>
     <t>Name</t>
   </si>
@@ -496,9 +496,6 @@
     <t>5. tblLopHoc</t>
   </si>
   <si>
-    <t>4. tblPhanCongCongTac</t>
-  </si>
-  <si>
     <t>PK_sMaPCCT</t>
   </si>
   <si>
@@ -742,12 +739,6 @@
     <t>E.g</t>
   </si>
   <si>
-    <t>5. tblSinhVien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. </t>
-  </si>
-  <si>
     <t>Checkbox</t>
   </si>
   <si>
@@ -926,6 +917,54 @@
   </si>
   <si>
     <t>sLinkChatRooms</t>
+  </si>
+  <si>
+    <t>7. tblPhanCongCongTac</t>
+  </si>
+  <si>
+    <t>8. tblSinhVien</t>
+  </si>
+  <si>
+    <t>10. tblConfig</t>
+  </si>
+  <si>
+    <t>11. tblError</t>
+  </si>
+  <si>
+    <t>9. tblBaiViet</t>
+  </si>
+  <si>
+    <t>PK_sMaBaiViet</t>
+  </si>
+  <si>
+    <t>sTieuDe</t>
+  </si>
+  <si>
+    <t>sLinkAnh</t>
+  </si>
+  <si>
+    <t>sTag</t>
+  </si>
+  <si>
+    <t>sNoiDung</t>
+  </si>
+  <si>
+    <t>iLuotXem</t>
+  </si>
+  <si>
+    <t>tNgayViet</t>
+  </si>
+  <si>
+    <t>sMoTa</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>nvarchar(MAX)</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1132,6 +1171,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1151,7 +1193,261 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="142">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
@@ -2965,19 +3261,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133549</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>30040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2996,8 +3292,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="161925"/>
-          <a:ext cx="9991924" cy="7772400"/>
+          <a:off x="885825" y="95250"/>
+          <a:ext cx="10058400" cy="7745290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3010,29 +3306,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:C9" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:C9" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139" totalsRowBorderDxfId="138">
   <autoFilter ref="B3:C9"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="121"/>
-    <tableColumn id="2" name="Value" dataDxfId="120"/>
+    <tableColumn id="1" name="Name" dataDxfId="137"/>
+    <tableColumn id="2" name="Value" dataDxfId="136"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15811" displayName="Table15811" ref="B39:C42" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15811" displayName="Table15811" ref="B39:C42" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115" totalsRowBorderDxfId="114">
   <autoFilter ref="B39:C42"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="97"/>
-    <tableColumn id="2" name="Value" dataDxfId="96"/>
+    <tableColumn id="1" name="Name" dataDxfId="113"/>
+    <tableColumn id="2" name="Value" dataDxfId="112"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table26912" displayName="Table26912" ref="F39:G46" totalsRowShown="0" headerRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table26912" displayName="Table26912" ref="F39:G46" totalsRowShown="0" headerRowDxfId="111">
   <autoFilter ref="F39:G46"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3043,7 +3339,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table2471013" displayName="Table2471013" ref="J39:K44" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table2471013" displayName="Table2471013" ref="J39:K44" totalsRowShown="0" headerRowDxfId="110">
   <autoFilter ref="J39:K44"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3054,18 +3350,18 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1581114" displayName="Table1581114" ref="B51:C64" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1581114" displayName="Table1581114" ref="B51:C64" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="B51:C64"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="89"/>
-    <tableColumn id="2" name="Value" dataDxfId="88"/>
+    <tableColumn id="1" name="Name" dataDxfId="105"/>
+    <tableColumn id="2" name="Value" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table2691215" displayName="Table2691215" ref="F51:G58" totalsRowShown="0" headerRowDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table2691215" displayName="Table2691215" ref="F51:G58" totalsRowShown="0" headerRowDxfId="103">
   <autoFilter ref="F51:G58"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3076,7 +3372,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table247101316" displayName="Table247101316" ref="J51:K58" totalsRowShown="0" headerRowDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table247101316" displayName="Table247101316" ref="J51:K58" totalsRowShown="0" headerRowDxfId="102">
   <autoFilter ref="J51:K58"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3087,8 +3383,34 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B3:E14" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="B3:E14" totalsRowShown="0" headerRowDxfId="101" headerRowBorderDxfId="100" tableBorderDxfId="99" totalsRowBorderDxfId="98">
   <autoFilter ref="B3:E14"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="97"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="96"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="95"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table1618" displayName="Table1618" ref="H3:K14" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+  <autoFilter ref="H3:K14"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="89"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="88"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="87"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="86"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1619" displayName="Table1619" ref="N3:Q23" totalsRowShown="0" headerRowDxfId="85" headerRowBorderDxfId="84" tableBorderDxfId="83" totalsRowBorderDxfId="82">
+  <autoFilter ref="N3:Q23"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="81"/>
     <tableColumn id="2" name="Column Name" dataDxfId="80"/>
@@ -3099,9 +3421,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table1618" displayName="Table1618" ref="H3:K14" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
-  <autoFilter ref="H3:K14"/>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1620" displayName="Table1620" ref="B26:E32" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="B26:E32"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="73"/>
     <tableColumn id="2" name="Column Name" dataDxfId="72"/>
@@ -3112,9 +3434,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1619" displayName="Table1619" ref="N3:Q23" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
-  <autoFilter ref="N3:Q23"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F3:G9" totalsRowShown="0" headerRowDxfId="135">
+  <autoFilter ref="F3:G9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table162021" displayName="Table162021" ref="H26:K32" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+  <autoFilter ref="H26:K32"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="65"/>
     <tableColumn id="2" name="Column Name" dataDxfId="64"/>
@@ -3125,9 +3458,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table1620" displayName="Table1620" ref="B26:E32" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
-  <autoFilter ref="B26:E32"/>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table162022" displayName="Table162022" ref="N26:Q31" totalsRowShown="0" headerRowDxfId="61" headerRowBorderDxfId="60" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+  <autoFilter ref="N26:Q31"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="57"/>
     <tableColumn id="2" name="Column Name" dataDxfId="56"/>
@@ -3138,20 +3471,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="F3:G9" totalsRowShown="0" headerRowDxfId="119">
-  <autoFilter ref="F3:G9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Value"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table162021" displayName="Table162021" ref="H26:K32" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
-  <autoFilter ref="H26:K32"/>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table162023" displayName="Table162023" ref="B37:E43" totalsRowShown="0" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+  <autoFilter ref="B37:E43"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="49"/>
     <tableColumn id="2" name="Column Name" dataDxfId="48"/>
@@ -3162,9 +3484,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table162022" displayName="Table162022" ref="N26:Q31" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
-  <autoFilter ref="N26:Q31"/>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table16202124" displayName="Table16202124" ref="H37:K63" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="H37:K63"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="41"/>
     <tableColumn id="2" name="Column Name" dataDxfId="40"/>
@@ -3175,9 +3497,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table162023" displayName="Table162023" ref="B37:E43" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
-  <autoFilter ref="B37:E43"/>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table16202225" displayName="Table16202225" ref="B58:E63" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35" totalsRowBorderDxfId="34">
+  <autoFilter ref="B58:E63"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Key" dataDxfId="33"/>
     <tableColumn id="2" name="Column Name" dataDxfId="32"/>
@@ -3188,58 +3510,58 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table16202124" displayName="Table16202124" ref="H37:K63" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="H37:K63"/>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table1620222528" displayName="Table1620222528" ref="B48:E53" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="B48:E53"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="25"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="24"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="23"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table16202225" displayName="Table16202225" ref="N37:Q42" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
-  <autoFilter ref="N37:Q42"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Key" dataDxfId="17"/>
-    <tableColumn id="2" name="Column Name" dataDxfId="16"/>
-    <tableColumn id="3" name="Data Type" dataDxfId="15"/>
-    <tableColumn id="4" name="Allow Nulls" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table2691226" displayName="Table2691226" ref="C4:E51" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="C4:E51"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="9"/>
-    <tableColumn id="2" name="Value" dataDxfId="8"/>
-    <tableColumn id="3" name="E.g" dataDxfId="7"/>
+    <tableColumn id="1" name="Key" dataDxfId="11"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="10"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="9"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table269122627" displayName="Table269122627" ref="G4:I19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table161829" displayName="Table161829" ref="N37:Q48" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="N37:Q48"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Key" dataDxfId="3"/>
+    <tableColumn id="2" name="Column Name" dataDxfId="2"/>
+    <tableColumn id="3" name="Data Type" dataDxfId="1"/>
+    <tableColumn id="4" name="Allow Nulls" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table2691226" displayName="Table2691226" ref="C4:E51" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="C4:E51"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" name="Value" dataDxfId="24"/>
+    <tableColumn id="3" name="E.g" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table269122627" displayName="Table269122627" ref="G4:I19" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="G4:I19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Value" dataDxfId="1"/>
-    <tableColumn id="3" name="E.g" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="18"/>
+    <tableColumn id="2" name="Value" dataDxfId="17"/>
+    <tableColumn id="3" name="E.g" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="J3:K9" totalsRowShown="0" headerRowDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="J3:K9" totalsRowShown="0" headerRowDxfId="134">
   <autoFilter ref="J3:K9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3250,18 +3572,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B14:C16" totalsRowShown="0" headerRowDxfId="117" headerRowBorderDxfId="116" tableBorderDxfId="115" totalsRowBorderDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="B14:C16" totalsRowShown="0" headerRowDxfId="133" headerRowBorderDxfId="132" tableBorderDxfId="131" totalsRowBorderDxfId="130">
   <autoFilter ref="B14:C16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="113"/>
-    <tableColumn id="2" name="Value" dataDxfId="112"/>
+    <tableColumn id="1" name="Name" dataDxfId="129"/>
+    <tableColumn id="2" name="Value" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="F14:G16" totalsRowShown="0" headerRowDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="F14:G16" totalsRowShown="0" headerRowDxfId="127">
   <autoFilter ref="F14:G16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3272,7 +3594,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="J14:K20" totalsRowShown="0" headerRowDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table247" displayName="Table247" ref="J14:K20" totalsRowShown="0" headerRowDxfId="126">
   <autoFilter ref="J14:K20"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3283,18 +3605,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table158" displayName="Table158" ref="B25:C31" totalsRowShown="0" headerRowDxfId="109" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table158" displayName="Table158" ref="B25:C31" totalsRowShown="0" headerRowDxfId="125" headerRowBorderDxfId="124" tableBorderDxfId="123" totalsRowBorderDxfId="122">
   <autoFilter ref="B25:C31"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name" dataDxfId="105"/>
-    <tableColumn id="2" name="Value" dataDxfId="104"/>
+    <tableColumn id="1" name="Name" dataDxfId="121"/>
+    <tableColumn id="2" name="Value" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table269" displayName="Table269" ref="F25:G27" totalsRowShown="0" headerRowDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table269" displayName="Table269" ref="F25:G27" totalsRowShown="0" headerRowDxfId="119">
   <autoFilter ref="F25:G27"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3305,7 +3627,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table24710" displayName="Table24710" ref="J25:K34" totalsRowShown="0" headerRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table24710" displayName="Table24710" ref="J25:K34" totalsRowShown="0" headerRowDxfId="118">
   <autoFilter ref="J25:K34"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Name"/>
@@ -3620,18 +3942,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="J2" s="20" t="s">
+      <c r="G2" s="21"/>
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -3759,18 +4081,18 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="C13" s="21"/>
+      <c r="F13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="J13" s="20" t="s">
+      <c r="G13" s="21"/>
+      <c r="J13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
@@ -3866,18 +4188,18 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="F24" s="20" t="s">
+      <c r="C24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="J24" s="20" t="s">
+      <c r="G24" s="21"/>
+      <c r="J24" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="20"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -4021,18 +4343,18 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="F38" s="20" t="s">
+      <c r="C38" s="21"/>
+      <c r="F38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="J38" s="20" t="s">
+      <c r="G38" s="21"/>
+      <c r="J38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="20"/>
+      <c r="K38" s="21"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
@@ -4160,18 +4482,18 @@
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="F50" s="20" t="s">
+      <c r="C50" s="21"/>
+      <c r="F50" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="J50" s="20" t="s">
+      <c r="G50" s="21"/>
+      <c r="J50" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="20"/>
+      <c r="K50" s="21"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
@@ -4327,6 +4649,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="J50:K50"/>
@@ -4336,12 +4664,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4369,8 +4691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D34" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4391,24 +4713,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="N2" s="20" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="N2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -4540,7 +4862,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K6" s="6" t="b">
         <v>0</v>
@@ -4690,7 +5012,7 @@
         <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E11" s="6" t="b">
         <v>0</v>
@@ -4756,7 +5078,7 @@
         <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="6" t="b">
         <v>0</v>
@@ -4842,7 +5164,7 @@
         <v>130</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="6" t="b">
         <v>0</v>
@@ -4866,7 +5188,7 @@
         <v>132</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q21" s="6" t="b">
         <v>0</v>
@@ -4875,7 +5197,7 @@
     <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N22" s="2"/>
       <c r="O22" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P22" s="9" t="s">
         <v>100</v>
@@ -4887,7 +5209,7 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="N23" s="2"/>
       <c r="O23" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>100</v>
@@ -4898,24 +5220,24 @@
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="H25" s="20" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="H25" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="N25" s="20" t="s">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="N25" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
@@ -5033,7 +5355,7 @@
         <v>141</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="6" t="b">
         <v>0</v>
@@ -5043,7 +5365,7 @@
         <v>150</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K29" s="6" t="b">
         <v>0</v>
@@ -5053,7 +5375,7 @@
         <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="6" t="b">
         <v>0</v>
@@ -5075,7 +5397,7 @@
         <v>151</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K30" s="6" t="b">
         <v>0</v>
@@ -5085,7 +5407,7 @@
         <v>156</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q30" s="6" t="b">
         <v>0</v>
@@ -5097,7 +5419,7 @@
         <v>143</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="6" t="b">
         <v>1</v>
@@ -5107,7 +5429,7 @@
         <v>152</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K31" s="6" t="b">
         <v>0</v>
@@ -5117,7 +5439,7 @@
         <v>144</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="6" t="b">
         <v>0</v>
@@ -5129,7 +5451,7 @@
         <v>144</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="6" t="b">
         <v>0</v>
@@ -5139,7 +5461,7 @@
         <v>144</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K32" s="6" t="b">
         <v>0</v>
@@ -5147,24 +5469,24 @@
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="H36" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="N36" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
+      <c r="B36" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="H36" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="N36" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="s">
@@ -5194,10 +5516,10 @@
       <c r="N37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="O37" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="P37" s="20" t="s">
         <v>88</v>
       </c>
       <c r="Q37" s="17" t="s">
@@ -5209,7 +5531,7 @@
         <v>138</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>100</v>
@@ -5221,7 +5543,7 @@
         <v>138</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>100</v>
@@ -5229,10 +5551,18 @@
       <c r="K38" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="6"/>
+      <c r="N38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q38" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
@@ -5251,7 +5581,7 @@
         <v>137</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>100</v>
@@ -5259,10 +5589,18 @@
       <c r="K39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N39" s="5"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="6"/>
+      <c r="N39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="5"/>
@@ -5277,7 +5615,7 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>133</v>
@@ -5285,15 +5623,23 @@
       <c r="K40" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N40" s="5"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="6"/>
+      <c r="N40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5"/>
       <c r="C41" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>105</v>
@@ -5303,7 +5649,7 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>100</v>
@@ -5312,14 +5658,20 @@
         <v>0</v>
       </c>
       <c r="N41" s="5"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="6"/>
+      <c r="O41" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q41" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>105</v>
@@ -5329,7 +5681,7 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>100</v>
@@ -5338,9 +5690,15 @@
         <v>0</v>
       </c>
       <c r="N42" s="5"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
+      <c r="O42" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q42" s="6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5"/>
@@ -5349,31 +5707,51 @@
       <c r="E43" s="6"/>
       <c r="H43" s="2"/>
       <c r="I43" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K43" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q43" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H44" s="2"/>
       <c r="I44" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K44" s="6" t="b">
         <v>0</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q44" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H45" s="2"/>
       <c r="I45" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>134</v>
@@ -5381,11 +5759,19 @@
       <c r="K45" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q45" s="6"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H46" s="2"/>
       <c r="I46" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>105</v>
@@ -5393,11 +5779,25 @@
       <c r="K46" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>135</v>
@@ -5405,11 +5805,31 @@
       <c r="K47" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>136</v>
@@ -5417,11 +5837,23 @@
       <c r="K48" s="6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="5"/>
+      <c r="O48" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="6"/>
       <c r="H49" s="2"/>
       <c r="I49" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>105</v>
@@ -5430,10 +5862,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="6"/>
       <c r="H50" s="2"/>
       <c r="I50" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>133</v>
@@ -5442,10 +5878,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="6"/>
       <c r="H51" s="2"/>
       <c r="I51" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>133</v>
@@ -5454,10 +5894,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="6"/>
       <c r="H52" s="2"/>
       <c r="I52" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>133</v>
@@ -5466,10 +5910,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="6"/>
       <c r="H53" s="2"/>
       <c r="I53" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>134</v>
@@ -5478,34 +5926,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="2"/>
       <c r="I54" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K54" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="2"/>
       <c r="I55" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K55" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H56" s="2"/>
       <c r="I56" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J56" s="7" t="s">
         <v>105</v>
@@ -5514,10 +5962,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
       <c r="H57" s="2"/>
       <c r="I57" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>105</v>
@@ -5526,10 +5980,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>135</v>
@@ -5538,22 +6004,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="6"/>
       <c r="H59" s="2"/>
       <c r="I59" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K59" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="6"/>
       <c r="H60" s="2"/>
       <c r="I60" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>133</v>
@@ -5562,10 +6036,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="6"/>
       <c r="H61" s="2"/>
       <c r="I61" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>135</v>
@@ -5574,10 +6052,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="6"/>
       <c r="H62" s="2"/>
       <c r="I62" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J62" s="7" t="s">
         <v>105</v>
@@ -5586,23 +6068,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="5"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="6"/>
       <c r="H63" s="2"/>
       <c r="I63" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J63" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="K63" s="6" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="N36:Q36"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="N2:Q2"/>
@@ -5611,7 +6099,7 @@
     <mergeCell ref="N25:Q25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="9">
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5621,6 +6109,8 @@
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5629,7 +6119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -5646,15 +6136,15 @@
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="G3" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="G3" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
@@ -5664,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>0</v>
@@ -5673,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5681,10 +6171,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="3"/>
       <c r="G5" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -5693,7 +6183,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
       <c r="G6" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>137</v>
@@ -5705,7 +6195,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="6"/>
       <c r="G7" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>138</v>
@@ -5717,10 +6207,10 @@
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
       <c r="G8" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -5729,10 +6219,10 @@
       <c r="D9" s="7"/>
       <c r="E9" s="6"/>
       <c r="G9" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -5741,10 +6231,10 @@
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
       <c r="G10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -5756,485 +6246,485 @@
         <v>105</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
-        <v>289</v>
+      <c r="B12" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" s="1"/>
       <c r="G13" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="1"/>
       <c r="G14" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="E15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" s="1"/>
       <c r="G16" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
       <c r="G17" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E19" s="1"/>
       <c r="G19" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="21"/>
-      <c r="C23" s="2" t="s">
+      <c r="D24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="22"/>
+      <c r="C25" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="2" t="s">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22"/>
+      <c r="C26" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D26" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="22"/>
+      <c r="C35" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="22"/>
+      <c r="C36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="22"/>
+      <c r="C37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D37" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="9" t="s">
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="2" t="s">
+      <c r="D38" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="22"/>
+      <c r="C39" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="21" t="s">
+      <c r="D39" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="22"/>
+      <c r="C40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="24"/>
+      <c r="C42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="24"/>
+      <c r="C43" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="24"/>
+      <c r="C44" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="24"/>
+      <c r="C45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24"/>
+      <c r="C46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="22"/>
+      <c r="C48" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="22"/>
+      <c r="C49" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="23"/>
-      <c r="C42" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="23"/>
-      <c r="C43" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="23"/>
-      <c r="C44" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="23"/>
-      <c r="C46" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="21" t="s">
+      <c r="D49" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="21"/>
-      <c r="C49" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -6259,8 +6749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
+++ b/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
@@ -3269,21 +3269,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3305,6 +3290,21 @@
     <xf numFmtId="47" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3312,104 +3312,225 @@
   </cellStyles>
   <dxfs count="308">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
+        <vertical style="thin">
           <color indexed="64"/>
         </vertical>
-        <horizontal style="medium">
+        <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
+        <vertical style="thin">
           <color indexed="64"/>
         </vertical>
-        <horizontal style="medium">
+        <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="medium">
+        <vertical style="thin">
           <color indexed="64"/>
         </vertical>
-        <horizontal style="medium">
+        <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="medium">
+        <top style="thin">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top/>
@@ -3417,6 +3538,368 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3430,6 +3913,595 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -3443,42 +4515,658 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3496,133 +5184,12 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3761,6 +5328,20 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3781,172 +5362,129 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3986,6 +5524,52 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="29" formatCode="mm:ss.0"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -4056,6 +5640,168 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -4110,6 +5856,19 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -4139,6 +5898,163 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -4296,6 +6212,33 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4308,2077 +6251,134 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+        <vertical style="medium">
           <color indexed="64"/>
         </vertical>
-        <horizontal style="thin">
+        <horizontal style="medium">
           <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="medium">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="medium">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
+        <vertical style="medium">
           <color indexed="64"/>
         </vertical>
-        <horizontal style="thin">
+        <horizontal style="medium">
           <color indexed="64"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
+        <top style="medium">
           <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top style="medium">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
-        <bottom style="thin">
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -8748,12 +8748,12 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table26912262731" displayName="Table26912262731" ref="K4:M19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table26912262731" displayName="Table26912262731" ref="K4:M19" totalsRowShown="0" headerRowDxfId="165" headerRowBorderDxfId="164" tableBorderDxfId="163" totalsRowBorderDxfId="162">
   <autoFilter ref="K4:M19"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Table Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Value Primary Key" dataDxfId="1"/>
-    <tableColumn id="3" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" name="Table Name" dataDxfId="161"/>
+    <tableColumn id="2" name="Value Primary Key" dataDxfId="160"/>
+    <tableColumn id="3" name="Note" dataDxfId="159"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8771,201 +8771,201 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table32" displayName="Table32" ref="B2:I11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="164" headerRowBorderDxfId="165" tableBorderDxfId="163" totalsRowBorderDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table32" displayName="Table32" ref="B2:I11" totalsRowShown="0" headerRowDxfId="158" dataDxfId="156" headerRowBorderDxfId="157" tableBorderDxfId="155" totalsRowBorderDxfId="154">
   <autoFilter ref="B2:I11"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="PK_lErrorID" dataDxfId="161"/>
-    <tableColumn id="2" name="sLink" dataDxfId="160"/>
-    <tableColumn id="3" name="sIP" dataDxfId="159"/>
-    <tableColumn id="4" name="sBrowser" dataDxfId="158"/>
-    <tableColumn id="5" name="iCodes" dataDxfId="157"/>
-    <tableColumn id="6" name="tTime" dataDxfId="156"/>
-    <tableColumn id="7" name="tTimeCheck" dataDxfId="155"/>
-    <tableColumn id="8" name="iStatus" dataDxfId="154"/>
+    <tableColumn id="1" name="PK_lErrorID" dataDxfId="153"/>
+    <tableColumn id="2" name="sLink" dataDxfId="152"/>
+    <tableColumn id="3" name="sIP" dataDxfId="151"/>
+    <tableColumn id="4" name="sBrowser" dataDxfId="150"/>
+    <tableColumn id="5" name="iCodes" dataDxfId="149"/>
+    <tableColumn id="6" name="tTime" dataDxfId="148"/>
+    <tableColumn id="7" name="tTimeCheck" dataDxfId="147"/>
+    <tableColumn id="8" name="iStatus" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table34" displayName="Table34" ref="B2:G9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" totalsRowBorderDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table34" displayName="Table34" ref="B2:G9" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" totalsRowBorderDxfId="141">
   <autoFilter ref="B2:G9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PK_sMalop" dataDxfId="149"/>
-    <tableColumn id="2" name="sTenlop" dataDxfId="148"/>
-    <tableColumn id="3" name="iNamvaotruong" dataDxfId="147"/>
-    <tableColumn id="4" name="iSiso" dataDxfId="146"/>
-    <tableColumn id="5" name="iSoNamDaoTao" dataDxfId="145"/>
-    <tableColumn id="6" name="iTrangThai" dataDxfId="144"/>
+    <tableColumn id="1" name="PK_sMalop" dataDxfId="140"/>
+    <tableColumn id="2" name="sTenlop" dataDxfId="139"/>
+    <tableColumn id="3" name="iNamvaotruong" dataDxfId="138"/>
+    <tableColumn id="4" name="iSiso" dataDxfId="137"/>
+    <tableColumn id="5" name="iSoNamDaoTao" dataDxfId="136"/>
+    <tableColumn id="6" name="iTrangThai" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C2:W6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141" totalsRowBorderDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C2:W6" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="130">
   <autoFilter ref="C2:W6"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="PK_sMaGV" dataDxfId="139"/>
-    <tableColumn id="2" name="sHoTenGV" dataDxfId="138"/>
-    <tableColumn id="3" name="sTendangnhapGV" dataDxfId="137"/>
-    <tableColumn id="4" name="sMatkhauGV" dataDxfId="136"/>
-    <tableColumn id="5" name="sEmailGV" dataDxfId="135"/>
-    <tableColumn id="6" name="sDiachiGV" dataDxfId="134"/>
-    <tableColumn id="7" name="sSdtGV" dataDxfId="133"/>
-    <tableColumn id="8" name="tNgaysinhGV" dataDxfId="132"/>
-    <tableColumn id="9" name="bGioitinhGV" dataDxfId="131"/>
-    <tableColumn id="10" name="sCMNDGV" dataDxfId="130"/>
-    <tableColumn id="11" name="tNgayCapCMNDGV" dataDxfId="129"/>
-    <tableColumn id="12" name="sNoiCapCMNDGV" dataDxfId="128"/>
-    <tableColumn id="13" name="bHonNhanGV" dataDxfId="127"/>
-    <tableColumn id="14" name="tNgayNhanCongTacGV" dataDxfId="126"/>
-    <tableColumn id="15" name="iChucVuGV" dataDxfId="125"/>
-    <tableColumn id="16" name="iHocViGV" dataDxfId="124"/>
-    <tableColumn id="17" name="bCongChucGV" dataDxfId="123"/>
-    <tableColumn id="18" name="sLinkChannelsGV" dataDxfId="122"/>
-    <tableColumn id="19" name="sLinkChatRoomsGV" dataDxfId="121"/>
-    <tableColumn id="20" name="sLinkAvatarGV" dataDxfId="120"/>
-    <tableColumn id="21" name="iTrangThaiGV" dataDxfId="119"/>
+    <tableColumn id="1" name="PK_sMaGV" dataDxfId="129"/>
+    <tableColumn id="2" name="sHoTenGV" dataDxfId="128"/>
+    <tableColumn id="3" name="sTendangnhapGV" dataDxfId="127"/>
+    <tableColumn id="4" name="sMatkhauGV" dataDxfId="126"/>
+    <tableColumn id="5" name="sEmailGV" dataDxfId="125"/>
+    <tableColumn id="6" name="sDiachiGV" dataDxfId="124"/>
+    <tableColumn id="7" name="sSdtGV" dataDxfId="123"/>
+    <tableColumn id="8" name="tNgaysinhGV" dataDxfId="122"/>
+    <tableColumn id="9" name="bGioitinhGV" dataDxfId="121"/>
+    <tableColumn id="10" name="sCMNDGV" dataDxfId="120"/>
+    <tableColumn id="11" name="tNgayCapCMNDGV" dataDxfId="119"/>
+    <tableColumn id="12" name="sNoiCapCMNDGV" dataDxfId="118"/>
+    <tableColumn id="13" name="bHonNhanGV" dataDxfId="117"/>
+    <tableColumn id="14" name="tNgayNhanCongTacGV" dataDxfId="116"/>
+    <tableColumn id="15" name="iChucVuGV" dataDxfId="115"/>
+    <tableColumn id="16" name="iHocViGV" dataDxfId="114"/>
+    <tableColumn id="17" name="bCongChucGV" dataDxfId="113"/>
+    <tableColumn id="18" name="sLinkChannelsGV" dataDxfId="112"/>
+    <tableColumn id="19" name="sLinkChatRoomsGV" dataDxfId="111"/>
+    <tableColumn id="20" name="sLinkAvatarGV" dataDxfId="110"/>
+    <tableColumn id="21" name="iTrangThaiGV" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="B2:F12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="B2:F12" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
   <autoFilter ref="B2:F12"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PK_sMaMonhoc" dataDxfId="114"/>
-    <tableColumn id="2" name="sTenMonhoc" dataDxfId="113"/>
-    <tableColumn id="3" name="iSotrinh" dataDxfId="112"/>
-    <tableColumn id="4" name="iSotietday" dataDxfId="111"/>
-    <tableColumn id="5" name="iTrangThai" dataDxfId="110"/>
+    <tableColumn id="1" name="PK_sMaMonhoc" dataDxfId="103"/>
+    <tableColumn id="2" name="sTenMonhoc" dataDxfId="102"/>
+    <tableColumn id="3" name="iSotrinh" dataDxfId="101"/>
+    <tableColumn id="4" name="iSotietday" dataDxfId="100"/>
+    <tableColumn id="5" name="iTrangThai" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="B2:AB7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="108" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="B2:AB7" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="B2:AB7"/>
   <tableColumns count="27">
-    <tableColumn id="1" name="FK_sMaLop" dataDxfId="105"/>
-    <tableColumn id="2" name="PK_sMaSV" dataDxfId="104"/>
-    <tableColumn id="3" name="sHotenSV" dataDxfId="103"/>
-    <tableColumn id="4" name="sTendangnhapSV" dataDxfId="102"/>
-    <tableColumn id="5" name="sMatkhauSV" dataDxfId="101"/>
-    <tableColumn id="6" name="sEmailSV" dataDxfId="100"/>
-    <tableColumn id="7" name="sDiachiSV" dataDxfId="99"/>
-    <tableColumn id="8" name="sSdtSV" dataDxfId="98"/>
-    <tableColumn id="9" name="tNgaysinhSV" dataDxfId="97"/>
-    <tableColumn id="10" name="bGioitinhSV" dataDxfId="96"/>
-    <tableColumn id="11" name="sCMNDSV" dataDxfId="95"/>
-    <tableColumn id="12" name="tNgayCapCMNDSV" dataDxfId="94"/>
-    <tableColumn id="13" name="sNoiCapCMNDSV" dataDxfId="93"/>
-    <tableColumn id="14" name="bHonNhanSV" dataDxfId="92"/>
-    <tableColumn id="15" name="sNguoiLienHeSV" dataDxfId="91"/>
-    <tableColumn id="16" name="sDiaChiNguoiLienHeSV" dataDxfId="90"/>
-    <tableColumn id="17" name="sSdtNguoiLienHeSV" dataDxfId="89"/>
-    <tableColumn id="18" name="iQuanHeVoiNguoiLienHeSV" dataDxfId="88"/>
-    <tableColumn id="19" name="bKetnapDoanSV" dataDxfId="87"/>
-    <tableColumn id="20" name="iNamketnapDoanSV" dataDxfId="86"/>
-    <tableColumn id="21" name="sNoiketnapDoanSV" dataDxfId="85"/>
-    <tableColumn id="22" name="iNamtotnghiepTHPTSV" dataDxfId="84"/>
-    <tableColumn id="23" name="tNgayNhapHocSV" dataDxfId="83"/>
-    <tableColumn id="24" name="tNgayRaTruongSV" dataDxfId="82"/>
-    <tableColumn id="25" name="tNgayCapTheSV" dataDxfId="81"/>
-    <tableColumn id="26" name="sLinkAvatarSV" dataDxfId="80"/>
-    <tableColumn id="27" name="iTrangThaiSV" dataDxfId="79"/>
+    <tableColumn id="1" name="FK_sMaLop" dataDxfId="93"/>
+    <tableColumn id="2" name="PK_sMaSV" dataDxfId="92"/>
+    <tableColumn id="3" name="sHotenSV" dataDxfId="91"/>
+    <tableColumn id="4" name="sTendangnhapSV" dataDxfId="90"/>
+    <tableColumn id="5" name="sMatkhauSV" dataDxfId="89"/>
+    <tableColumn id="6" name="sEmailSV" dataDxfId="88"/>
+    <tableColumn id="7" name="sDiachiSV" dataDxfId="87"/>
+    <tableColumn id="8" name="sSdtSV" dataDxfId="86"/>
+    <tableColumn id="9" name="tNgaysinhSV" dataDxfId="85"/>
+    <tableColumn id="10" name="bGioitinhSV" dataDxfId="84"/>
+    <tableColumn id="11" name="sCMNDSV" dataDxfId="83"/>
+    <tableColumn id="12" name="tNgayCapCMNDSV" dataDxfId="82"/>
+    <tableColumn id="13" name="sNoiCapCMNDSV" dataDxfId="81"/>
+    <tableColumn id="14" name="bHonNhanSV" dataDxfId="80"/>
+    <tableColumn id="15" name="sNguoiLienHeSV" dataDxfId="79"/>
+    <tableColumn id="16" name="sDiaChiNguoiLienHeSV" dataDxfId="78"/>
+    <tableColumn id="17" name="sSdtNguoiLienHeSV" dataDxfId="77"/>
+    <tableColumn id="18" name="iQuanHeVoiNguoiLienHeSV" dataDxfId="76"/>
+    <tableColumn id="19" name="bKetnapDoanSV" dataDxfId="75"/>
+    <tableColumn id="20" name="iNamketnapDoanSV" dataDxfId="74"/>
+    <tableColumn id="21" name="sNoiketnapDoanSV" dataDxfId="73"/>
+    <tableColumn id="22" name="iNamtotnghiepTHPTSV" dataDxfId="72"/>
+    <tableColumn id="23" name="tNgayNhapHocSV" dataDxfId="71"/>
+    <tableColumn id="24" name="tNgayRaTruongSV" dataDxfId="70"/>
+    <tableColumn id="25" name="tNgayCapTheSV" dataDxfId="69"/>
+    <tableColumn id="26" name="sLinkAvatarSV" dataDxfId="68"/>
+    <tableColumn id="27" name="iTrangThaiSV" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="B3:M273" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="78" tableBorderDxfId="77" totalsRowBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="B3:M273" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="B3:M273"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="FK_sMaGV" dataDxfId="75"/>
-    <tableColumn id="2" name="PK_lCauhoi_ID" dataDxfId="74"/>
-    <tableColumn id="3" name="sCauhoi_Cauhoi" dataDxfId="73"/>
-    <tableColumn id="4" name="sCauhoi_A" dataDxfId="72"/>
-    <tableColumn id="5" name="sCauhoi_B" dataDxfId="71"/>
-    <tableColumn id="6" name="sCauhoi_C" dataDxfId="70"/>
-    <tableColumn id="7" name="sCauhoi_D" dataDxfId="69"/>
-    <tableColumn id="8" name="iCauhoi_Dung" dataDxfId="68"/>
-    <tableColumn id="9" name="sBoCauHoi" dataDxfId="67"/>
-    <tableColumn id="10" name="tNgayTao" dataDxfId="66"/>
-    <tableColumn id="11" name="tNgayCapNhat" dataDxfId="65"/>
-    <tableColumn id="12" name="iTrangThai" dataDxfId="64"/>
+    <tableColumn id="1" name="FK_sMaGV" dataDxfId="62"/>
+    <tableColumn id="2" name="PK_lCauhoi_ID" dataDxfId="61"/>
+    <tableColumn id="3" name="sCauhoi_Cauhoi" dataDxfId="60"/>
+    <tableColumn id="4" name="sCauhoi_A" dataDxfId="59"/>
+    <tableColumn id="5" name="sCauhoi_B" dataDxfId="58"/>
+    <tableColumn id="6" name="sCauhoi_C" dataDxfId="57"/>
+    <tableColumn id="7" name="sCauhoi_D" dataDxfId="56"/>
+    <tableColumn id="8" name="iCauhoi_Dung" dataDxfId="55"/>
+    <tableColumn id="9" name="sBoCauHoi" dataDxfId="54"/>
+    <tableColumn id="10" name="tNgayTao" dataDxfId="53"/>
+    <tableColumn id="11" name="tNgayCapNhat" dataDxfId="52"/>
+    <tableColumn id="12" name="iTrangThai" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table38" displayName="Table38" ref="B2:L3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="62" headerRowBorderDxfId="63" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table38" displayName="Table38" ref="B2:L3" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="B2:L3"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="FK_sMaGV" dataDxfId="59"/>
-    <tableColumn id="2" name="PK_lMaBaiViet" dataDxfId="58"/>
-    <tableColumn id="3" name="sTieuDe" dataDxfId="57"/>
-    <tableColumn id="4" name="sLinkAnh" dataDxfId="56"/>
-    <tableColumn id="5" name="sTag" dataDxfId="55"/>
-    <tableColumn id="6" name="sNoiDung" dataDxfId="54"/>
-    <tableColumn id="7" name="iLuotXem" dataDxfId="53"/>
-    <tableColumn id="8" name="tNgayViet" dataDxfId="52"/>
-    <tableColumn id="9" name="tNgayCapNhat" dataDxfId="51"/>
-    <tableColumn id="10" name="sMoTa" dataDxfId="50"/>
-    <tableColumn id="11" name="iTrangThai" dataDxfId="49"/>
+    <tableColumn id="1" name="FK_sMaGV" dataDxfId="45"/>
+    <tableColumn id="2" name="PK_lMaBaiViet" dataDxfId="44"/>
+    <tableColumn id="3" name="sTieuDe" dataDxfId="43"/>
+    <tableColumn id="4" name="sLinkAnh" dataDxfId="42"/>
+    <tableColumn id="5" name="sTag" dataDxfId="41"/>
+    <tableColumn id="6" name="sNoiDung" dataDxfId="40"/>
+    <tableColumn id="7" name="iLuotXem" dataDxfId="39"/>
+    <tableColumn id="8" name="tNgayViet" dataDxfId="38"/>
+    <tableColumn id="9" name="tNgayCapNhat" dataDxfId="37"/>
+    <tableColumn id="10" name="sMoTa" dataDxfId="36"/>
+    <tableColumn id="11" name="iTrangThai" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="B2:G3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="B2:G3" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="B2:G3"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PK_sMaPCCT" dataDxfId="44"/>
-    <tableColumn id="2" name="FK_sMaGV" dataDxfId="43"/>
-    <tableColumn id="3" name="FK_sMaMonhoc" dataDxfId="42"/>
-    <tableColumn id="4" name="tNgayBatDau" dataDxfId="41"/>
-    <tableColumn id="5" name="tNgayKetThuc" dataDxfId="40"/>
-    <tableColumn id="6" name="iTrangThai" dataDxfId="39"/>
+    <tableColumn id="1" name="PK_sMaPCCT" dataDxfId="29"/>
+    <tableColumn id="2" name="FK_sMaGV" dataDxfId="28"/>
+    <tableColumn id="3" name="FK_sMaMonhoc" dataDxfId="27"/>
+    <tableColumn id="4" name="tNgayBatDau" dataDxfId="26"/>
+    <tableColumn id="5" name="tNgayKetThuc" dataDxfId="25"/>
+    <tableColumn id="6" name="iTrangThai" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="B2:H3" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="B2:H3" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="B2:H3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="FK_sMaPCCT" dataDxfId="35"/>
-    <tableColumn id="2" name="FK_sMalop" dataDxfId="34"/>
-    <tableColumn id="3" name="iCaHoc" dataDxfId="33"/>
-    <tableColumn id="4" name="tNgayDay" dataDxfId="32"/>
-    <tableColumn id="5" name="iSoTietDay" dataDxfId="31"/>
-    <tableColumn id="6" name="sSinhVienNghi" dataDxfId="30"/>
-    <tableColumn id="7" name="iTrangThai" dataDxfId="29"/>
+    <tableColumn id="1" name="FK_sMaPCCT" dataDxfId="19"/>
+    <tableColumn id="2" name="FK_sMalop" dataDxfId="18"/>
+    <tableColumn id="3" name="iCaHoc" dataDxfId="17"/>
+    <tableColumn id="4" name="tNgayDay" dataDxfId="16"/>
+    <tableColumn id="5" name="iSoTietDay" dataDxfId="15"/>
+    <tableColumn id="6" name="sSinhVienNghi" dataDxfId="14"/>
+    <tableColumn id="7" name="iTrangThai" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table39" displayName="Table39" ref="B2:I3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table39" displayName="Table39" ref="B2:I3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="B2:I3"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="FK_sMaSV" dataDxfId="24"/>
-    <tableColumn id="2" name="FK_sMaMonhoc" dataDxfId="23"/>
-    <tableColumn id="3" name="PK_iSolanhoc" dataDxfId="22"/>
-    <tableColumn id="4" name="fDiemchuyencan" dataDxfId="21"/>
-    <tableColumn id="5" name="fDiemgiuaky" dataDxfId="20"/>
-    <tableColumn id="6" name="fDiemthilan1" dataDxfId="19"/>
-    <tableColumn id="7" name="fDiemthilan2" dataDxfId="18"/>
-    <tableColumn id="8" name="iTrangThai" dataDxfId="17"/>
+    <tableColumn id="1" name="FK_sMaSV" dataDxfId="7"/>
+    <tableColumn id="2" name="FK_sMaMonhoc" dataDxfId="6"/>
+    <tableColumn id="3" name="PK_iSolanhoc" dataDxfId="5"/>
+    <tableColumn id="4" name="fDiemchuyencan" dataDxfId="4"/>
+    <tableColumn id="5" name="fDiemgiuaky" dataDxfId="3"/>
+    <tableColumn id="6" name="fDiemthilan1" dataDxfId="2"/>
+    <tableColumn id="7" name="fDiemthilan2" dataDxfId="1"/>
+    <tableColumn id="8" name="iTrangThai" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9342,18 +9342,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="49"/>
+      <c r="F2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="49"/>
+      <c r="J2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="42"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -9481,18 +9481,18 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="F13" s="42" t="s">
+      <c r="C13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="J13" s="42" t="s">
+      <c r="G13" s="49"/>
+      <c r="J13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="42"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
@@ -9588,18 +9588,18 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="F24" s="42" t="s">
+      <c r="C24" s="49"/>
+      <c r="F24" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="J24" s="42" t="s">
+      <c r="G24" s="49"/>
+      <c r="J24" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="42"/>
+      <c r="K24" s="49"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -9743,18 +9743,18 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="F38" s="42" t="s">
+      <c r="C38" s="49"/>
+      <c r="F38" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="42"/>
-      <c r="J38" s="42" t="s">
+      <c r="G38" s="49"/>
+      <c r="J38" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="42"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
@@ -9882,18 +9882,18 @@
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="F50" s="42" t="s">
+      <c r="C50" s="49"/>
+      <c r="F50" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="J50" s="42" t="s">
+      <c r="G50" s="49"/>
+      <c r="J50" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="42"/>
+      <c r="K50" s="49"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
@@ -10049,12 +10049,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="J50:K50"/>
@@ -10064,6 +10058,12 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="J38:K38"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10127,85 +10127,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="51" t="s">
+      <c r="L2" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="51" t="s">
+      <c r="N2" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="Q2" s="51" t="s">
+      <c r="Q2" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="R2" s="51" t="s">
+      <c r="R2" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="S2" s="51" t="s">
+      <c r="S2" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="T2" s="51" t="s">
+      <c r="T2" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="51" t="s">
+      <c r="U2" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="V2" s="51" t="s">
+      <c r="V2" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="51" t="s">
+      <c r="W2" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="AA2" s="51" t="s">
+      <c r="AA2" s="46" t="s">
         <v>931</v>
       </c>
-      <c r="AB2" s="52" t="s">
+      <c r="AB2" s="47" t="s">
         <v>187</v>
       </c>
     </row>
@@ -10653,40 +10653,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="44" t="s">
         <v>144</v>
       </c>
     </row>
@@ -20978,37 +20978,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>916</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="47" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21074,22 +21074,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="47" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21141,25 +21141,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>929</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>930</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="44" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21214,28 +21214,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="47" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21299,24 +21299,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="H2" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="N2" s="42" t="s">
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -21806,24 +21806,24 @@
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="H25" s="42" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="H25" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="N25" s="42" t="s">
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="N25" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
@@ -22055,24 +22055,24 @@
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="H36" s="42" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="H36" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="N36" s="42" t="s">
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="N36" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="s">
@@ -22375,12 +22375,12 @@
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9" t="s">
         <v>171</v>
@@ -22549,12 +22549,12 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
       <c r="H57" s="2"/>
       <c r="I57" s="9" t="s">
         <v>181</v>
@@ -22672,17 +22672,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="11">
@@ -22705,8 +22705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22729,16 +22729,16 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="K3" s="42" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="K3" s="49" t="s">
         <v>952</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
@@ -22911,7 +22911,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="51" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -22937,7 +22937,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="2" t="s">
         <v>114</v>
       </c>
@@ -22963,7 +22963,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="2" t="s">
         <v>234</v>
       </c>
@@ -22985,7 +22985,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="2" t="s">
         <v>235</v>
       </c>
@@ -23007,7 +23007,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="2" t="s">
         <v>238</v>
       </c>
@@ -23027,7 +23027,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -23043,7 +23043,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="50" t="s">
         <v>284</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -23067,7 +23067,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="2" t="s">
         <v>240</v>
       </c>
@@ -23087,7 +23087,7 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="2" t="s">
         <v>244</v>
       </c>
@@ -23097,7 +23097,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="2" t="s">
         <v>243</v>
       </c>
@@ -23107,7 +23107,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="2" t="s">
         <v>246</v>
       </c>
@@ -23117,7 +23117,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="2" t="s">
         <v>248</v>
       </c>
@@ -23127,7 +23127,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="43"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="2" t="s">
         <v>250</v>
       </c>
@@ -23139,7 +23139,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="43"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="2" t="s">
         <v>251</v>
       </c>
@@ -23149,7 +23149,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="43"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="2" t="s">
         <v>253</v>
       </c>
@@ -23159,7 +23159,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="2" t="s">
         <v>207</v>
       </c>
@@ -23171,7 +23171,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="2" t="s">
         <v>255</v>
       </c>
@@ -23183,7 +23183,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="43"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="2" t="s">
         <v>256</v>
       </c>
@@ -23193,7 +23193,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="2" t="s">
         <v>258</v>
       </c>
@@ -23205,7 +23205,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="2" t="s">
         <v>191</v>
       </c>
@@ -23217,7 +23217,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="2" t="s">
         <v>259</v>
       </c>
@@ -23227,7 +23227,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="43"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="2" t="s">
         <v>261</v>
       </c>
@@ -23237,7 +23237,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="2" t="s">
         <v>263</v>
       </c>
@@ -23247,7 +23247,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="43"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="2" t="s">
         <v>210</v>
       </c>
@@ -23257,7 +23257,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="2" t="s">
         <v>190</v>
       </c>
@@ -23269,7 +23269,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="2" t="s">
         <v>197</v>
       </c>
@@ -23281,7 +23281,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="50" t="s">
         <v>285</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -23293,7 +23293,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="2" t="s">
         <v>267</v>
       </c>
@@ -23303,7 +23303,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="43"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="2" t="s">
         <v>269</v>
       </c>
@@ -23313,7 +23313,7 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="51" t="s">
         <v>280</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -23325,7 +23325,7 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="2" t="s">
         <v>273</v>
       </c>
@@ -23335,7 +23335,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="2" t="s">
         <v>275</v>
       </c>
@@ -23345,7 +23345,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="2" t="s">
         <v>277</v>
       </c>
@@ -23355,7 +23355,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="2" t="s">
         <v>279</v>
       </c>
@@ -23365,7 +23365,7 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="2" t="s">
         <v>281</v>
       </c>
@@ -23375,7 +23375,7 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="50" t="s">
         <v>292</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -23387,7 +23387,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="43"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="2" t="s">
         <v>289</v>
       </c>
@@ -23397,7 +23397,7 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="43"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="5" t="s">
         <v>288</v>
       </c>
@@ -23407,7 +23407,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="43"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="5" t="s">
         <v>290</v>
       </c>
@@ -23417,7 +23417,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="43"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="5" t="s">
         <v>291</v>
       </c>
@@ -23493,28 +23493,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>917</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>918</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>919</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>920</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>921</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>922</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="43" t="s">
         <v>923</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="44" t="s">
         <v>924</v>
       </c>
     </row>
@@ -23775,22 +23775,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="44" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23976,67 +23976,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="43" t="s">
         <v>925</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="43" t="s">
         <v>926</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="43" t="s">
         <v>927</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="43" t="s">
         <v>928</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="44" t="s">
         <v>132</v>
       </c>
     </row>
@@ -24332,19 +24332,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="47" t="s">
         <v>144</v>
       </c>
     </row>

--- a/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
+++ b/nguyenmanhthang/DO_AN_TN/Other/ProjectManagement/General.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="802" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="802" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Constants" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="1051">
   <si>
     <t>Name</t>
   </si>
@@ -2893,13 +2893,301 @@
   </si>
   <si>
     <t>Value Primary Key</t>
+  </si>
+  <si>
+    <t>GV000000</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>40bd001563085fc35165329ea1ff5c5ecbdbbeef</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>GV000010</t>
+  </si>
+  <si>
+    <t>Tạ Xuân Quang</t>
+  </si>
+  <si>
+    <t>Xuanquang</t>
+  </si>
+  <si>
+    <t>91c61373b60407ce55a858923e59be516ee7e232</t>
+  </si>
+  <si>
+    <t>Xuanquang@gmail.com</t>
+  </si>
+  <si>
+    <t>37 Minh Khai-Hà Nội</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Xuanquang</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Xuanquang</t>
+  </si>
+  <si>
+    <t>GV000011</t>
+  </si>
+  <si>
+    <t>Cao Thi Anh</t>
+  </si>
+  <si>
+    <t>3099270fe6a21cb380d8b4cb3cbe58a8cddff4af</t>
+  </si>
+  <si>
+    <t>Anh@gmail.com</t>
+  </si>
+  <si>
+    <t>74 Hai Bà Trưng-Hà Nội</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Anh</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Anh</t>
+  </si>
+  <si>
+    <t>GV000012</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cường</t>
+  </si>
+  <si>
+    <t>Vancuong</t>
+  </si>
+  <si>
+    <t>28464fd9a7d0c9329c3190b958ce1dc31b996f05</t>
+  </si>
+  <si>
+    <t>Vancuong@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Vancuong</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Vancuong</t>
+  </si>
+  <si>
+    <t>GV000013</t>
+  </si>
+  <si>
+    <t>Phạm Đức Điệp</t>
+  </si>
+  <si>
+    <t>Ducdiep</t>
+  </si>
+  <si>
+    <t>08fcf01dff1f2106c456dd6d5bbad72d21e6ee4b</t>
+  </si>
+  <si>
+    <t>Ducdiep@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Ducdiep</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Ducdiep</t>
+  </si>
+  <si>
+    <t>GV000014</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà My</t>
+  </si>
+  <si>
+    <t>Hamy</t>
+  </si>
+  <si>
+    <t>e0d11c1935088dfc64dfe6559dffddb7454cb035</t>
+  </si>
+  <si>
+    <t>Hamy@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Hamy</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Hamy</t>
+  </si>
+  <si>
+    <t>GV000015</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng</t>
+  </si>
+  <si>
+    <t>Tiendung</t>
+  </si>
+  <si>
+    <t>c5e25ff4818e1cb341426df795bf1fa74c660b56</t>
+  </si>
+  <si>
+    <t>Tiendung@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Tiendung</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Tiendung</t>
+  </si>
+  <si>
+    <t>GV000016</t>
+  </si>
+  <si>
+    <t>Đặng Thanh Thủy</t>
+  </si>
+  <si>
+    <t>Thanhthuy</t>
+  </si>
+  <si>
+    <t>831a5f1aab7f5853fa5631696f03b56a0a93397e</t>
+  </si>
+  <si>
+    <t>Thanhthuy@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Thanhthuy</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Thanhthuy</t>
+  </si>
+  <si>
+    <t>GV000017</t>
+  </si>
+  <si>
+    <t>Phạm Công Tiến</t>
+  </si>
+  <si>
+    <t>Congtien</t>
+  </si>
+  <si>
+    <t>c9a88f70085f5a1fa10dbbf2ffdd86aef64c2d60</t>
+  </si>
+  <si>
+    <t>Congtien@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Congtien</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Congtien</t>
+  </si>
+  <si>
+    <t>GV000018</t>
+  </si>
+  <si>
+    <t>Bùi Thị Mai</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>ea4440bd94714e4e85334618405679ae2e36f4f1</t>
+  </si>
+  <si>
+    <t>Mai@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Mai</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Mai</t>
+  </si>
+  <si>
+    <t>GV000019</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>430d8611aea4a4d5e6619e5c48d8f44277551697</t>
+  </si>
+  <si>
+    <t>Dung@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Dung</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Dung</t>
+  </si>
+  <si>
+    <t>GV000020</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Liên</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>7a9d88da7ab89f9b90255c3c9ace8862962e4b8c</t>
+  </si>
+  <si>
+    <t>Lien@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Lien</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Lien</t>
+  </si>
+  <si>
+    <t>GV000021</t>
+  </si>
+  <si>
+    <t>Đặng Nhật Minh</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>6e4057658753dee2bc31398292a86753cbf7ebba</t>
+  </si>
+  <si>
+    <t>Minh@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Minh</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Minh</t>
+  </si>
+  <si>
+    <t>GV000022</t>
+  </si>
+  <si>
+    <t>Đặng Nhật Quang</t>
+  </si>
+  <si>
+    <t>Quang</t>
+  </si>
+  <si>
+    <t>b1baaa3c1bba6da1702c56a469b2fcaf1924262c</t>
+  </si>
+  <si>
+    <t>Quang@gmail.com</t>
+  </si>
+  <si>
+    <t>rtmp://localhost/live/Quang</t>
+  </si>
+  <si>
+    <t>http://localhost/chat/Quang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2911,14 +3199,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3180,11 +3460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -3263,12 +3542,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3306,8 +3579,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="308">
@@ -3318,6 +3590,308 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -3499,6 +4073,232 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -5329,534 +6129,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="29" formatCode="mm:ss.0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -8803,169 +9075,169 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C2:W6" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="130">
-  <autoFilter ref="C2:W6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table31" displayName="Table31" ref="C2:W20" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23" totalsRowBorderDxfId="21">
+  <autoFilter ref="C2:W20"/>
   <tableColumns count="21">
-    <tableColumn id="1" name="PK_sMaGV" dataDxfId="129"/>
-    <tableColumn id="2" name="sHoTenGV" dataDxfId="128"/>
-    <tableColumn id="3" name="sTendangnhapGV" dataDxfId="127"/>
-    <tableColumn id="4" name="sMatkhauGV" dataDxfId="126"/>
-    <tableColumn id="5" name="sEmailGV" dataDxfId="125"/>
-    <tableColumn id="6" name="sDiachiGV" dataDxfId="124"/>
-    <tableColumn id="7" name="sSdtGV" dataDxfId="123"/>
-    <tableColumn id="8" name="tNgaysinhGV" dataDxfId="122"/>
-    <tableColumn id="9" name="bGioitinhGV" dataDxfId="121"/>
-    <tableColumn id="10" name="sCMNDGV" dataDxfId="120"/>
-    <tableColumn id="11" name="tNgayCapCMNDGV" dataDxfId="119"/>
-    <tableColumn id="12" name="sNoiCapCMNDGV" dataDxfId="118"/>
-    <tableColumn id="13" name="bHonNhanGV" dataDxfId="117"/>
-    <tableColumn id="14" name="tNgayNhanCongTacGV" dataDxfId="116"/>
-    <tableColumn id="15" name="iChucVuGV" dataDxfId="115"/>
-    <tableColumn id="16" name="iHocViGV" dataDxfId="114"/>
-    <tableColumn id="17" name="bCongChucGV" dataDxfId="113"/>
-    <tableColumn id="18" name="sLinkChannelsGV" dataDxfId="112"/>
-    <tableColumn id="19" name="sLinkChatRoomsGV" dataDxfId="111"/>
-    <tableColumn id="20" name="sLinkAvatarGV" dataDxfId="110"/>
-    <tableColumn id="21" name="iTrangThaiGV" dataDxfId="109"/>
+    <tableColumn id="1" name="PK_sMaGV" dataDxfId="20"/>
+    <tableColumn id="2" name="sHoTenGV" dataDxfId="19"/>
+    <tableColumn id="3" name="sTendangnhapGV" dataDxfId="18"/>
+    <tableColumn id="4" name="sMatkhauGV" dataDxfId="17"/>
+    <tableColumn id="5" name="sEmailGV" dataDxfId="16"/>
+    <tableColumn id="6" name="sDiachiGV" dataDxfId="15"/>
+    <tableColumn id="7" name="sSdtGV" dataDxfId="14"/>
+    <tableColumn id="8" name="tNgaysinhGV" dataDxfId="13"/>
+    <tableColumn id="9" name="bGioitinhGV" dataDxfId="12"/>
+    <tableColumn id="10" name="sCMNDGV" dataDxfId="11"/>
+    <tableColumn id="11" name="tNgayCapCMNDGV" dataDxfId="10"/>
+    <tableColumn id="12" name="sNoiCapCMNDGV" dataDxfId="9"/>
+    <tableColumn id="13" name="bHonNhanGV" dataDxfId="8"/>
+    <tableColumn id="14" name="tNgayNhanCongTacGV" dataDxfId="7"/>
+    <tableColumn id="15" name="iChucVuGV" dataDxfId="6"/>
+    <tableColumn id="16" name="iHocViGV" dataDxfId="5"/>
+    <tableColumn id="17" name="bCongChucGV" dataDxfId="4"/>
+    <tableColumn id="18" name="sLinkChannelsGV" dataDxfId="3"/>
+    <tableColumn id="19" name="sLinkChatRoomsGV" dataDxfId="2"/>
+    <tableColumn id="20" name="sLinkAvatarGV" dataDxfId="1"/>
+    <tableColumn id="21" name="iTrangThaiGV" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="B2:F12" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table35" displayName="Table35" ref="B2:F12" totalsRowShown="0" headerRowDxfId="134" dataDxfId="132" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="130">
   <autoFilter ref="B2:F12"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PK_sMaMonhoc" dataDxfId="103"/>
-    <tableColumn id="2" name="sTenMonhoc" dataDxfId="102"/>
-    <tableColumn id="3" name="iSotrinh" dataDxfId="101"/>
-    <tableColumn id="4" name="iSotietday" dataDxfId="100"/>
-    <tableColumn id="5" name="iTrangThai" dataDxfId="99"/>
+    <tableColumn id="1" name="PK_sMaMonhoc" dataDxfId="129"/>
+    <tableColumn id="2" name="sTenMonhoc" dataDxfId="128"/>
+    <tableColumn id="3" name="iSotrinh" dataDxfId="127"/>
+    <tableColumn id="4" name="iSotietday" dataDxfId="126"/>
+    <tableColumn id="5" name="iTrangThai" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="B2:AB7" totalsRowShown="0" headerRowDxfId="98" dataDxfId="96" headerRowBorderDxfId="97" tableBorderDxfId="95" totalsRowBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="B2:AB7" totalsRowShown="0" headerRowDxfId="124" dataDxfId="122" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="120">
   <autoFilter ref="B2:AB7"/>
   <tableColumns count="27">
-    <tableColumn id="1" name="FK_sMaLop" dataDxfId="93"/>
-    <tableColumn id="2" name="PK_sMaSV" dataDxfId="92"/>
-    <tableColumn id="3" name="sHotenSV" dataDxfId="91"/>
-    <tableColumn id="4" name="sTendangnhapSV" dataDxfId="90"/>
-    <tableColumn id="5" name="sMatkhauSV" dataDxfId="89"/>
-    <tableColumn id="6" name="sEmailSV" dataDxfId="88"/>
-    <tableColumn id="7" name="sDiachiSV" dataDxfId="87"/>
-    <tableColumn id="8" name="sSdtSV" dataDxfId="86"/>
-    <tableColumn id="9" name="tNgaysinhSV" dataDxfId="85"/>
-    <tableColumn id="10" name="bGioitinhSV" dataDxfId="84"/>
-    <tableColumn id="11" name="sCMNDSV" dataDxfId="83"/>
-    <tableColumn id="12" name="tNgayCapCMNDSV" dataDxfId="82"/>
-    <tableColumn id="13" name="sNoiCapCMNDSV" dataDxfId="81"/>
-    <tableColumn id="14" name="bHonNhanSV" dataDxfId="80"/>
-    <tableColumn id="15" name="sNguoiLienHeSV" dataDxfId="79"/>
-    <tableColumn id="16" name="sDiaChiNguoiLienHeSV" dataDxfId="78"/>
-    <tableColumn id="17" name="sSdtNguoiLienHeSV" dataDxfId="77"/>
-    <tableColumn id="18" name="iQuanHeVoiNguoiLienHeSV" dataDxfId="76"/>
-    <tableColumn id="19" name="bKetnapDoanSV" dataDxfId="75"/>
-    <tableColumn id="20" name="iNamketnapDoanSV" dataDxfId="74"/>
-    <tableColumn id="21" name="sNoiketnapDoanSV" dataDxfId="73"/>
-    <tableColumn id="22" name="iNamtotnghiepTHPTSV" dataDxfId="72"/>
-    <tableColumn id="23" name="tNgayNhapHocSV" dataDxfId="71"/>
-    <tableColumn id="24" name="tNgayRaTruongSV" dataDxfId="70"/>
-    <tableColumn id="25" name="tNgayCapTheSV" dataDxfId="69"/>
-    <tableColumn id="26" name="sLinkAvatarSV" dataDxfId="68"/>
-    <tableColumn id="27" name="iTrangThaiSV" dataDxfId="67"/>
+    <tableColumn id="1" name="FK_sMaLop" dataDxfId="119"/>
+    <tableColumn id="2" name="PK_sMaSV" dataDxfId="118"/>
+    <tableColumn id="3" name="sHotenSV" dataDxfId="117"/>
+    <tableColumn id="4" name="sTendangnhapSV" dataDxfId="116"/>
+    <tableColumn id="5" name="sMatkhauSV" dataDxfId="115"/>
+    <tableColumn id="6" name="sEmailSV" dataDxfId="114"/>
+    <tableColumn id="7" name="sDiachiSV" dataDxfId="113"/>
+    <tableColumn id="8" name="sSdtSV" dataDxfId="112"/>
+    <tableColumn id="9" name="tNgaysinhSV" dataDxfId="111"/>
+    <tableColumn id="10" name="bGioitinhSV" dataDxfId="110"/>
+    <tableColumn id="11" name="sCMNDSV" dataDxfId="109"/>
+    <tableColumn id="12" name="tNgayCapCMNDSV" dataDxfId="108"/>
+    <tableColumn id="13" name="sNoiCapCMNDSV" dataDxfId="107"/>
+    <tableColumn id="14" name="bHonNhanSV" dataDxfId="106"/>
+    <tableColumn id="15" name="sNguoiLienHeSV" dataDxfId="105"/>
+    <tableColumn id="16" name="sDiaChiNguoiLienHeSV" dataDxfId="104"/>
+    <tableColumn id="17" name="sSdtNguoiLienHeSV" dataDxfId="103"/>
+    <tableColumn id="18" name="iQuanHeVoiNguoiLienHeSV" dataDxfId="102"/>
+    <tableColumn id="19" name="bKetnapDoanSV" dataDxfId="101"/>
+    <tableColumn id="20" name="iNamketnapDoanSV" dataDxfId="100"/>
+    <tableColumn id="21" name="sNoiketnapDoanSV" dataDxfId="99"/>
+    <tableColumn id="22" name="iNamtotnghiepTHPTSV" dataDxfId="98"/>
+    <tableColumn id="23" name="tNgayNhapHocSV" dataDxfId="97"/>
+    <tableColumn id="24" name="tNgayRaTruongSV" dataDxfId="96"/>
+    <tableColumn id="25" name="tNgayCapTheSV" dataDxfId="95"/>
+    <tableColumn id="26" name="sLinkAvatarSV" dataDxfId="94"/>
+    <tableColumn id="27" name="iTrangThaiSV" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="B3:M273" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="65" tableBorderDxfId="64" totalsRowBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table29" displayName="Table29" ref="B3:M273" totalsRowShown="0" headerRowDxfId="92" headerRowBorderDxfId="91" tableBorderDxfId="90" totalsRowBorderDxfId="89">
   <autoFilter ref="B3:M273"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="FK_sMaGV" dataDxfId="62"/>
-    <tableColumn id="2" name="PK_lCauhoi_ID" dataDxfId="61"/>
-    <tableColumn id="3" name="sCauhoi_Cauhoi" dataDxfId="60"/>
-    <tableColumn id="4" name="sCauhoi_A" dataDxfId="59"/>
-    <tableColumn id="5" name="sCauhoi_B" dataDxfId="58"/>
-    <tableColumn id="6" name="sCauhoi_C" dataDxfId="57"/>
-    <tableColumn id="7" name="sCauhoi_D" dataDxfId="56"/>
-    <tableColumn id="8" name="iCauhoi_Dung" dataDxfId="55"/>
-    <tableColumn id="9" name="sBoCauHoi" dataDxfId="54"/>
-    <tableColumn id="10" name="tNgayTao" dataDxfId="53"/>
-    <tableColumn id="11" name="tNgayCapNhat" dataDxfId="52"/>
-    <tableColumn id="12" name="iTrangThai" dataDxfId="51"/>
+    <tableColumn id="1" name="FK_sMaGV" dataDxfId="88"/>
+    <tableColumn id="2" name="PK_lCauhoi_ID" dataDxfId="87"/>
+    <tableColumn id="3" name="sCauhoi_Cauhoi" dataDxfId="86"/>
+    <tableColumn id="4" name="sCauhoi_A" dataDxfId="85"/>
+    <tableColumn id="5" name="sCauhoi_B" dataDxfId="84"/>
+    <tableColumn id="6" name="sCauhoi_C" dataDxfId="83"/>
+    <tableColumn id="7" name="sCauhoi_D" dataDxfId="82"/>
+    <tableColumn id="8" name="iCauhoi_Dung" dataDxfId="81"/>
+    <tableColumn id="9" name="sBoCauHoi" dataDxfId="80"/>
+    <tableColumn id="10" name="tNgayTao" dataDxfId="79"/>
+    <tableColumn id="11" name="tNgayCapNhat" dataDxfId="78"/>
+    <tableColumn id="12" name="iTrangThai" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table38" displayName="Table38" ref="B2:L3" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Table38" displayName="Table38" ref="B2:L3" totalsRowShown="0" headerRowDxfId="76" dataDxfId="74" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="B2:L3"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="FK_sMaGV" dataDxfId="45"/>
-    <tableColumn id="2" name="PK_lMaBaiViet" dataDxfId="44"/>
-    <tableColumn id="3" name="sTieuDe" dataDxfId="43"/>
-    <tableColumn id="4" name="sLinkAnh" dataDxfId="42"/>
-    <tableColumn id="5" name="sTag" dataDxfId="41"/>
-    <tableColumn id="6" name="sNoiDung" dataDxfId="40"/>
-    <tableColumn id="7" name="iLuotXem" dataDxfId="39"/>
-    <tableColumn id="8" name="tNgayViet" dataDxfId="38"/>
-    <tableColumn id="9" name="tNgayCapNhat" dataDxfId="37"/>
-    <tableColumn id="10" name="sMoTa" dataDxfId="36"/>
-    <tableColumn id="11" name="iTrangThai" dataDxfId="35"/>
+    <tableColumn id="1" name="FK_sMaGV" dataDxfId="71"/>
+    <tableColumn id="2" name="PK_lMaBaiViet" dataDxfId="70"/>
+    <tableColumn id="3" name="sTieuDe" dataDxfId="69"/>
+    <tableColumn id="4" name="sLinkAnh" dataDxfId="68"/>
+    <tableColumn id="5" name="sTag" dataDxfId="67"/>
+    <tableColumn id="6" name="sNoiDung" dataDxfId="66"/>
+    <tableColumn id="7" name="iLuotXem" dataDxfId="65"/>
+    <tableColumn id="8" name="tNgayViet" dataDxfId="64"/>
+    <tableColumn id="9" name="tNgayCapNhat" dataDxfId="63"/>
+    <tableColumn id="10" name="sMoTa" dataDxfId="62"/>
+    <tableColumn id="11" name="iTrangThai" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="B2:G3" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Table36" displayName="Table36" ref="B2:G3" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="B2:G3"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PK_sMaPCCT" dataDxfId="29"/>
-    <tableColumn id="2" name="FK_sMaGV" dataDxfId="28"/>
-    <tableColumn id="3" name="FK_sMaMonhoc" dataDxfId="27"/>
-    <tableColumn id="4" name="tNgayBatDau" dataDxfId="26"/>
-    <tableColumn id="5" name="tNgayKetThuc" dataDxfId="25"/>
-    <tableColumn id="6" name="iTrangThai" dataDxfId="24"/>
+    <tableColumn id="1" name="PK_sMaPCCT" dataDxfId="55"/>
+    <tableColumn id="2" name="FK_sMaGV" dataDxfId="54"/>
+    <tableColumn id="3" name="FK_sMaMonhoc" dataDxfId="53"/>
+    <tableColumn id="4" name="tNgayBatDau" dataDxfId="52"/>
+    <tableColumn id="5" name="tNgayKetThuc" dataDxfId="51"/>
+    <tableColumn id="6" name="iTrangThai" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="B2:H3" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table33" displayName="Table33" ref="B2:H3" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="B2:H3"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="FK_sMaPCCT" dataDxfId="19"/>
-    <tableColumn id="2" name="FK_sMalop" dataDxfId="18"/>
-    <tableColumn id="3" name="iCaHoc" dataDxfId="17"/>
-    <tableColumn id="4" name="tNgayDay" dataDxfId="16"/>
-    <tableColumn id="5" name="iSoTietDay" dataDxfId="15"/>
-    <tableColumn id="6" name="sSinhVienNghi" dataDxfId="14"/>
-    <tableColumn id="7" name="iTrangThai" dataDxfId="13"/>
+    <tableColumn id="1" name="FK_sMaPCCT" dataDxfId="45"/>
+    <tableColumn id="2" name="FK_sMalop" dataDxfId="44"/>
+    <tableColumn id="3" name="iCaHoc" dataDxfId="43"/>
+    <tableColumn id="4" name="tNgayDay" dataDxfId="42"/>
+    <tableColumn id="5" name="iSoTietDay" dataDxfId="41"/>
+    <tableColumn id="6" name="sSinhVienNghi" dataDxfId="40"/>
+    <tableColumn id="7" name="iTrangThai" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table39" displayName="Table39" ref="B2:I3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Table39" displayName="Table39" ref="B2:I3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="B2:I3"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="FK_sMaSV" dataDxfId="7"/>
-    <tableColumn id="2" name="FK_sMaMonhoc" dataDxfId="6"/>
-    <tableColumn id="3" name="PK_iSolanhoc" dataDxfId="5"/>
-    <tableColumn id="4" name="fDiemchuyencan" dataDxfId="4"/>
-    <tableColumn id="5" name="fDiemgiuaky" dataDxfId="3"/>
-    <tableColumn id="6" name="fDiemthilan1" dataDxfId="2"/>
-    <tableColumn id="7" name="fDiemthilan2" dataDxfId="1"/>
-    <tableColumn id="8" name="iTrangThai" dataDxfId="0"/>
+    <tableColumn id="1" name="FK_sMaSV" dataDxfId="33"/>
+    <tableColumn id="2" name="FK_sMaMonhoc" dataDxfId="32"/>
+    <tableColumn id="3" name="PK_iSolanhoc" dataDxfId="31"/>
+    <tableColumn id="4" name="fDiemchuyencan" dataDxfId="30"/>
+    <tableColumn id="5" name="fDiemgiuaky" dataDxfId="29"/>
+    <tableColumn id="6" name="fDiemthilan1" dataDxfId="28"/>
+    <tableColumn id="7" name="fDiemthilan2" dataDxfId="27"/>
+    <tableColumn id="8" name="iTrangThai" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9342,18 +9614,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="47"/>
+      <c r="F2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="J2" s="49" t="s">
+      <c r="G2" s="47"/>
+      <c r="J2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -9481,18 +9753,18 @@
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="F13" s="49" t="s">
+      <c r="C13" s="47"/>
+      <c r="F13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="J13" s="49" t="s">
+      <c r="G13" s="47"/>
+      <c r="J13" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="49"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
@@ -9588,18 +9860,18 @@
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="F24" s="49" t="s">
+      <c r="C24" s="47"/>
+      <c r="F24" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="J24" s="49" t="s">
+      <c r="G24" s="47"/>
+      <c r="J24" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="49"/>
+      <c r="K24" s="47"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
@@ -9743,18 +10015,18 @@
     </row>
     <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="F38" s="49" t="s">
+      <c r="C38" s="47"/>
+      <c r="F38" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="49"/>
-      <c r="J38" s="49" t="s">
+      <c r="G38" s="47"/>
+      <c r="J38" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K38" s="49"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="s">
@@ -9882,18 +10154,18 @@
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="F50" s="49" t="s">
+      <c r="C50" s="47"/>
+      <c r="F50" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="J50" s="49" t="s">
+      <c r="G50" s="47"/>
+      <c r="J50" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="K50" s="49"/>
+      <c r="K50" s="47"/>
     </row>
     <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
@@ -10049,6 +10321,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="J50:K50"/>
@@ -10058,12 +10336,6 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="J38:K38"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10127,85 +10399,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="46" t="s">
+      <c r="N2" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="46" t="s">
+      <c r="O2" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="R2" s="46" t="s">
+      <c r="R2" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="T2" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="U2" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AA2" s="44" t="s">
         <v>931</v>
       </c>
-      <c r="AB2" s="47" t="s">
+      <c r="AB2" s="45" t="s">
         <v>187</v>
       </c>
     </row>
@@ -10653,40 +10925,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="42" t="s">
         <v>144</v>
       </c>
     </row>
@@ -20978,37 +21250,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>916</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21074,22 +21346,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="45" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21141,25 +21413,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>929</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>930</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="42" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21214,28 +21486,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="45" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21299,24 +21571,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="H2" s="49" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="H2" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="N2" s="49" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="N2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
@@ -21806,24 +22078,24 @@
     </row>
     <row r="24" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="H25" s="49" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="H25" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="N25" s="49" t="s">
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="N25" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
@@ -22055,24 +22327,24 @@
     </row>
     <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="H36" s="49" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="H36" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="N36" s="49" t="s">
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="N36" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="s">
@@ -22375,12 +22647,12 @@
       <c r="Q46" s="6"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
       <c r="H47" s="2"/>
       <c r="I47" s="9" t="s">
         <v>171</v>
@@ -22549,12 +22821,12 @@
       </c>
     </row>
     <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
       <c r="H57" s="2"/>
       <c r="I57" s="9" t="s">
         <v>181</v>
@@ -22672,17 +22944,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="B57:E57"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="B57:E57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="11">
@@ -22705,7 +22977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -22729,16 +23001,16 @@
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="K3" s="47" t="s">
         <v>952</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
     </row>
     <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
@@ -22911,7 +23183,7 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="49" t="s">
         <v>286</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -22937,7 +23209,7 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="52"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="2" t="s">
         <v>114</v>
       </c>
@@ -22963,7 +23235,7 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="2" t="s">
         <v>234</v>
       </c>
@@ -22985,7 +23257,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="2" t="s">
         <v>235</v>
       </c>
@@ -23007,7 +23279,7 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="52"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="2" t="s">
         <v>238</v>
       </c>
@@ -23027,7 +23299,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -23043,7 +23315,7 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>284</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -23067,7 +23339,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="2" t="s">
         <v>240</v>
       </c>
@@ -23087,7 +23359,7 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="2" t="s">
         <v>244</v>
       </c>
@@ -23097,7 +23369,7 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="2" t="s">
         <v>243</v>
       </c>
@@ -23107,7 +23379,7 @@
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="2" t="s">
         <v>246</v>
       </c>
@@ -23117,7 +23389,7 @@
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="2" t="s">
         <v>248</v>
       </c>
@@ -23127,7 +23399,7 @@
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="2" t="s">
         <v>250</v>
       </c>
@@ -23139,7 +23411,7 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="2" t="s">
         <v>251</v>
       </c>
@@ -23149,7 +23421,7 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="2" t="s">
         <v>253</v>
       </c>
@@ -23159,7 +23431,7 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="50"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="2" t="s">
         <v>207</v>
       </c>
@@ -23171,7 +23443,7 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="2" t="s">
         <v>255</v>
       </c>
@@ -23183,7 +23455,7 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="2" t="s">
         <v>256</v>
       </c>
@@ -23193,7 +23465,7 @@
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="2" t="s">
         <v>258</v>
       </c>
@@ -23205,7 +23477,7 @@
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="2" t="s">
         <v>191</v>
       </c>
@@ -23217,7 +23489,7 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="50"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="2" t="s">
         <v>259</v>
       </c>
@@ -23227,7 +23499,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="50"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="2" t="s">
         <v>261</v>
       </c>
@@ -23237,7 +23509,7 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="50"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="2" t="s">
         <v>263</v>
       </c>
@@ -23247,7 +23519,7 @@
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="2" t="s">
         <v>210</v>
       </c>
@@ -23257,7 +23529,7 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="50"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="2" t="s">
         <v>190</v>
       </c>
@@ -23269,7 +23541,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="2" t="s">
         <v>197</v>
       </c>
@@ -23281,7 +23553,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="48" t="s">
         <v>285</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -23293,7 +23565,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="50"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="2" t="s">
         <v>267</v>
       </c>
@@ -23303,7 +23575,7 @@
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="50"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="2" t="s">
         <v>269</v>
       </c>
@@ -23313,7 +23585,7 @@
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="49" t="s">
         <v>280</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -23325,7 +23597,7 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="52"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="2" t="s">
         <v>273</v>
       </c>
@@ -23335,7 +23607,7 @@
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2" t="s">
         <v>275</v>
       </c>
@@ -23345,7 +23617,7 @@
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="52"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="2" t="s">
         <v>277</v>
       </c>
@@ -23355,7 +23627,7 @@
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="52"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="2" t="s">
         <v>279</v>
       </c>
@@ -23365,7 +23637,7 @@
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="52"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="2" t="s">
         <v>281</v>
       </c>
@@ -23375,7 +23647,7 @@
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="48" t="s">
         <v>292</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -23387,7 +23659,7 @@
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="50"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="2" t="s">
         <v>289</v>
       </c>
@@ -23397,7 +23669,7 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="50"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="5" t="s">
         <v>288</v>
       </c>
@@ -23407,7 +23679,7 @@
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="50"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="5" t="s">
         <v>290</v>
       </c>
@@ -23417,7 +23689,7 @@
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="50"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="5" t="s">
         <v>291</v>
       </c>
@@ -23493,28 +23765,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>917</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>921</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>922</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>923</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="42" t="s">
         <v>924</v>
       </c>
     </row>
@@ -23761,7 +24033,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="B3" sqref="B3:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23775,22 +24047,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23944,10 +24216,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:W6"/>
+  <dimension ref="C2:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23976,112 +24248,112 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="41" t="s">
         <v>925</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="41" t="s">
         <v>926</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="41" t="s">
         <v>927</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="41" t="s">
         <v>928</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="42" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:23" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="25" t="s">
-        <v>806</v>
+        <v>955</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>807</v>
+        <v>956</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>808</v>
+        <v>956</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>808</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>809</v>
+        <v>957</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>958</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>810</v>
       </c>
       <c r="I3" s="26">
-        <v>28383</v>
-      </c>
-      <c r="J3" s="38">
-        <v>41702</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>33829</v>
       </c>
       <c r="K3" s="26" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="26">
-        <v>93792642</v>
-      </c>
-      <c r="M3" s="38">
-        <v>41703</v>
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>41499</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>810</v>
       </c>
       <c r="O3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="38">
-        <v>41728</v>
+        <v>1</v>
+      </c>
+      <c r="P3" s="27">
+        <v>41499</v>
       </c>
       <c r="Q3" s="26">
         <v>1</v>
@@ -24090,78 +24362,74 @@
         <v>1</v>
       </c>
       <c r="S3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>812</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="26" t="s">
         <v>834</v>
       </c>
       <c r="W3" s="28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:23" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:23" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="25" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>816</v>
+        <v>957</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>809</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="I4" s="26">
-        <v>978986754</v>
-      </c>
-      <c r="J4" s="38">
-        <v>32456</v>
+        <v>28383</v>
+      </c>
+      <c r="J4" s="27">
+        <v>41702</v>
       </c>
       <c r="K4" s="26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="26">
-        <v>31897686</v>
-      </c>
-      <c r="M4" s="38">
-        <v>37994</v>
+        <v>93792642</v>
+      </c>
+      <c r="M4" s="27">
+        <v>41703</v>
       </c>
       <c r="N4" s="26" t="s">
-        <v>383</v>
+        <v>810</v>
       </c>
       <c r="O4" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="38">
-        <v>39855</v>
+      <c r="P4" s="27">
+        <v>41728</v>
       </c>
       <c r="Q4" s="26">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="R4" s="26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4" s="26" t="b">
         <v>0</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="V4" s="26" t="s">
         <v>834</v>
@@ -24170,63 +24438,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:23" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>823</v>
+        <v>957</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>816</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="I5" s="26">
-        <v>988123456</v>
-      </c>
-      <c r="J5" s="38">
-        <v>28127</v>
+        <v>978986754</v>
+      </c>
+      <c r="J5" s="27">
+        <v>32456</v>
       </c>
       <c r="K5" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="26">
-        <v>23487657</v>
-      </c>
-      <c r="M5" s="38">
-        <v>38355</v>
+        <v>31897686</v>
+      </c>
+      <c r="M5" s="27">
+        <v>37994</v>
       </c>
       <c r="N5" s="26" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
       <c r="O5" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="38">
-        <v>39452</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
+        <v>39855</v>
       </c>
       <c r="Q5" s="26">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R5" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="V5" s="26" t="s">
         <v>834</v>
@@ -24235,81 +24503,985 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="D6" s="30" t="s">
+    <row r="6" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>821</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>824</v>
+      </c>
+      <c r="I6" s="26">
+        <v>988123456</v>
+      </c>
+      <c r="J6" s="27">
+        <v>28127</v>
+      </c>
+      <c r="K6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26">
+        <v>23487657</v>
+      </c>
+      <c r="M6" s="27">
+        <v>38355</v>
+      </c>
+      <c r="N6" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="O6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="27">
+        <v>39452</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>51</v>
+      </c>
+      <c r="R6" s="26">
+        <v>5</v>
+      </c>
+      <c r="S6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>825</v>
+      </c>
+      <c r="U6" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>828</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="G6" s="41" t="s">
+      <c r="F7" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>829</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H7" s="26" t="s">
         <v>830</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I7" s="26">
         <v>1675279562</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J7" s="27">
         <v>33856</v>
       </c>
-      <c r="K6" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="30">
+      <c r="K7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="26">
         <v>17139836</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M7" s="27">
         <v>40455</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N7" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="O6" s="30" t="b">
+      <c r="O7" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P7" s="27">
         <v>41724</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q7" s="26">
         <v>52</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R7" s="26">
         <v>6</v>
       </c>
-      <c r="S6" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="30" t="s">
+      <c r="S7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U7" s="26" t="s">
         <v>833</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V7" s="26" t="s">
         <v>834</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>960</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>963</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>964</v>
+      </c>
+      <c r="I8" s="26">
+        <v>984580921</v>
+      </c>
+      <c r="J8" s="27">
+        <v>31778</v>
+      </c>
+      <c r="K8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="26">
+        <v>124567123</v>
+      </c>
+      <c r="M8" s="27">
+        <v>32874</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="O8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="27">
+        <v>41640</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>55</v>
+      </c>
+      <c r="R8" s="26">
+        <v>3</v>
+      </c>
+      <c r="S8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>965</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W8" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="25" t="s">
+        <v>967</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>968</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>969</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>970</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>971</v>
+      </c>
+      <c r="I9" s="26">
+        <v>916002989</v>
+      </c>
+      <c r="J9" s="27">
+        <v>28797</v>
+      </c>
+      <c r="K9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>125517890</v>
+      </c>
+      <c r="M9" s="27">
+        <v>36541</v>
+      </c>
+      <c r="N9" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="O9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" s="27">
+        <v>36794</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>55</v>
+      </c>
+      <c r="R9" s="26">
+        <v>4</v>
+      </c>
+      <c r="S9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>972</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>973</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W9" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>975</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>977</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I10" s="26">
+        <v>987689083</v>
+      </c>
+      <c r="J10" s="27">
+        <v>31548</v>
+      </c>
+      <c r="K10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="26">
+        <v>123400987</v>
+      </c>
+      <c r="M10" s="27">
+        <v>36498</v>
+      </c>
+      <c r="N10" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="O10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <v>38968</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>50</v>
+      </c>
+      <c r="R10" s="26">
+        <v>4</v>
+      </c>
+      <c r="S10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I11" s="26">
+        <v>987689858</v>
+      </c>
+      <c r="J11" s="27">
+        <v>31913</v>
+      </c>
+      <c r="K11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="26">
+        <v>123400098</v>
+      </c>
+      <c r="M11" s="27">
+        <v>36834</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="O11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="27">
+        <v>39271</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>55</v>
+      </c>
+      <c r="R11" s="26">
+        <v>6</v>
+      </c>
+      <c r="S11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>987</v>
+      </c>
+      <c r="V11" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>988</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>991</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>992</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1688987890</v>
+      </c>
+      <c r="J12" s="27">
+        <v>33129</v>
+      </c>
+      <c r="K12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26">
+        <v>123414498</v>
+      </c>
+      <c r="M12" s="27">
+        <v>36530</v>
+      </c>
+      <c r="N12" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="O12" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="27">
+        <v>40367</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>55</v>
+      </c>
+      <c r="R12" s="26">
+        <v>2</v>
+      </c>
+      <c r="S12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>993</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>994</v>
+      </c>
+      <c r="V12" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W12" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C13" s="25" t="s">
+        <v>995</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>999</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" s="26">
+        <v>1688987123</v>
+      </c>
+      <c r="J13" s="27">
+        <v>28747</v>
+      </c>
+      <c r="K13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="26">
+        <v>123414987</v>
+      </c>
+      <c r="M13" s="27">
+        <v>36551</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="O13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="27">
+        <v>40375</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>54</v>
+      </c>
+      <c r="R13" s="26">
+        <v>4</v>
+      </c>
+      <c r="S13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="I14" s="26">
+        <v>912908879</v>
+      </c>
+      <c r="J14" s="27">
+        <v>32616</v>
+      </c>
+      <c r="K14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>124456789</v>
+      </c>
+      <c r="M14" s="27">
+        <v>39448</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="O14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="27">
+        <v>36848</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>7</v>
+      </c>
+      <c r="R14" s="26">
+        <v>2</v>
+      </c>
+      <c r="S14" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W14" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C15" s="25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="26">
+        <v>912908123</v>
+      </c>
+      <c r="J15" s="27">
+        <v>32738</v>
+      </c>
+      <c r="K15" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="26">
+        <v>124789789</v>
+      </c>
+      <c r="M15" s="27">
+        <v>39682</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="O15" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="27">
+        <v>38684</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>55</v>
+      </c>
+      <c r="R15" s="26">
+        <v>4</v>
+      </c>
+      <c r="S15" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="V15" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W15" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1687780947</v>
+      </c>
+      <c r="J16" s="27">
+        <v>33591</v>
+      </c>
+      <c r="K16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <v>125578932</v>
+      </c>
+      <c r="M16" s="27">
+        <v>40080</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="O16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" s="27">
+        <v>41606</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>7</v>
+      </c>
+      <c r="R16" s="26">
+        <v>4</v>
+      </c>
+      <c r="S16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>1021</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>1022</v>
+      </c>
+      <c r="V16" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W16" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C17" s="25" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="26">
+        <v>912894489</v>
+      </c>
+      <c r="J17" s="27">
+        <v>28961</v>
+      </c>
+      <c r="K17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="26">
+        <v>125578890</v>
+      </c>
+      <c r="M17" s="27">
+        <v>39349</v>
+      </c>
+      <c r="N17" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="O17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="27">
+        <v>40455</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>50</v>
+      </c>
+      <c r="R17" s="26">
+        <v>5</v>
+      </c>
+      <c r="S17" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>1028</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="I18" s="26">
+        <v>912898905</v>
+      </c>
+      <c r="J18" s="27">
+        <v>29329</v>
+      </c>
+      <c r="K18" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>125512390</v>
+      </c>
+      <c r="M18" s="27">
+        <v>40132</v>
+      </c>
+      <c r="N18" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="O18" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="27">
+        <v>40494</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>53</v>
+      </c>
+      <c r="R18" s="26">
+        <v>5</v>
+      </c>
+      <c r="S18" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>1036</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W18" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1687908973</v>
+      </c>
+      <c r="J19" s="27">
+        <v>30790</v>
+      </c>
+      <c r="K19" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="26">
+        <v>125512765</v>
+      </c>
+      <c r="M19" s="27">
+        <v>39045</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="O19" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="27">
+        <v>40494</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>6</v>
+      </c>
+      <c r="R19" s="26">
+        <v>6</v>
+      </c>
+      <c r="S19" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>1042</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V19" s="26" t="s">
+        <v>834</v>
+      </c>
+      <c r="W19" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="C20" s="29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="I20" s="30">
+        <v>916009870</v>
+      </c>
+      <c r="J20" s="31">
+        <v>31976</v>
+      </c>
+      <c r="K20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="30">
+        <v>125512723</v>
+      </c>
+      <c r="M20" s="31">
+        <v>39046</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="O20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="31">
+        <v>40145</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>53</v>
+      </c>
+      <c r="R20" s="30">
+        <v>6</v>
+      </c>
+      <c r="S20" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="W20" s="32">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="G6" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24332,19 +25504,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="45" t="s">
         <v>144</v>
       </c>
     </row>
